--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,150 +49,6 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/3/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/3/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/3/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/4/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/4/2020 11:00:00 PM</t>
-  </si>
-  <si>
     <t>11/5/2020 12:00:00 AM</t>
   </si>
   <si>
@@ -317,6 +173,147 @@
   </si>
   <si>
     <t>11/6/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/6/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/7/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/7/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/8/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 4:00:00 PM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -677,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,28 +723,28 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="D2">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.44</v>
+        <v>21.4</v>
       </c>
       <c r="H2">
-        <v>-44.62</v>
+        <v>-43.13</v>
       </c>
       <c r="I2">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -758,19 +755,19 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12.99</v>
+        <v>13.01</v>
       </c>
       <c r="D3">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.45</v>
+        <v>21.45</v>
       </c>
       <c r="H3">
-        <v>-46.19</v>
+        <v>-43.09</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -779,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -790,19 +787,19 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D4">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.15</v>
+        <v>21.5</v>
       </c>
       <c r="H4">
-        <v>-46.46</v>
+        <v>-43.05</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -811,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -822,28 +819,28 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>12.94</v>
+        <v>12.97</v>
       </c>
       <c r="D5">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.9</v>
+        <v>21.4</v>
       </c>
       <c r="H5">
-        <v>-44.44</v>
+        <v>-43.14</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -854,28 +851,28 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.93</v>
+        <v>12.95</v>
       </c>
       <c r="D6">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.57</v>
+        <v>21.37</v>
       </c>
       <c r="H6">
-        <v>-43.85</v>
+        <v>-43.15</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -886,19 +883,19 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12.91</v>
+        <v>12.92</v>
       </c>
       <c r="D7">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.59</v>
+        <v>21.28</v>
       </c>
       <c r="H7">
-        <v>-43.83</v>
+        <v>-43.25</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -918,28 +915,28 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.89</v>
+        <v>12.9</v>
       </c>
       <c r="D8">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.46</v>
+        <v>21.31</v>
       </c>
       <c r="H8">
-        <v>-43.93</v>
+        <v>-43.23</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -950,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>13.09</v>
+        <v>12.92</v>
       </c>
       <c r="D9">
         <v>0.44</v>
@@ -959,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.37</v>
+        <v>20.68</v>
       </c>
       <c r="H9">
-        <v>-43.99</v>
+        <v>-43.71</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.71</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -982,10 +979,10 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.64</v>
+        <v>13.5</v>
       </c>
       <c r="D10">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,16 +991,16 @@
         <v>20.87</v>
       </c>
       <c r="H10">
-        <v>-43.56</v>
+        <v>-43.4</v>
       </c>
       <c r="I10">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="J10">
-        <v>106.86</v>
+        <v>58.5</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1014,28 +1011,28 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>13.67</v>
+        <v>13.65</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.12</v>
+        <v>21.11</v>
       </c>
       <c r="H11">
-        <v>-42.16</v>
+        <v>-43.23</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>404.97</v>
+        <v>80.77</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1046,28 +1043,28 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>13.68</v>
+        <v>13.66</v>
       </c>
       <c r="D12">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.89</v>
+        <v>21.44</v>
       </c>
       <c r="H12">
-        <v>-41.56</v>
+        <v>-42.96</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>557.09</v>
+        <v>105.06</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1078,28 +1075,28 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>13.7</v>
+        <v>13.68</v>
       </c>
       <c r="D13">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.37</v>
+        <v>22.65</v>
       </c>
       <c r="H13">
-        <v>-39.99</v>
+        <v>-41.86</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>908.8</v>
+        <v>384.99</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1110,28 +1107,28 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>13.7</v>
+        <v>13.68</v>
       </c>
       <c r="D14">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.28</v>
+        <v>22.74</v>
       </c>
       <c r="H14">
-        <v>-40.32</v>
+        <v>-41.73</v>
       </c>
       <c r="I14">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>689.42</v>
+        <v>263.69</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1142,28 +1139,28 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>13.71</v>
+        <v>13.69</v>
       </c>
       <c r="D15">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25</v>
+        <v>21.53</v>
       </c>
       <c r="H15">
-        <v>-39.46</v>
+        <v>-42.78</v>
       </c>
       <c r="I15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>864.22</v>
+        <v>291.09</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1174,28 +1171,28 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>13.73</v>
+        <v>13.69</v>
       </c>
       <c r="D16">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.6</v>
+        <v>21.24</v>
       </c>
       <c r="H16">
-        <v>-38.78</v>
+        <v>-43.05</v>
       </c>
       <c r="I16">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
-        <v>829.8</v>
+        <v>320.53</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1206,28 +1203,28 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>13.73</v>
+        <v>13.69</v>
       </c>
       <c r="D17">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F17">
-        <v>25.71</v>
+        <v>19.76</v>
       </c>
       <c r="H17">
-        <v>-38.87</v>
+        <v>-44.17</v>
       </c>
       <c r="I17">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>684.5700000000001</v>
+        <v>199.66</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,28 +1235,28 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.73</v>
+        <v>13.69</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F18">
-        <v>23.02</v>
+        <v>18.81</v>
       </c>
       <c r="H18">
-        <v>-41.26</v>
+        <v>-44.95</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>476.9</v>
+        <v>94.87</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1270,28 +1267,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.72</v>
+        <v>13.67</v>
       </c>
       <c r="D19">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>21.22</v>
+        <v>18.55</v>
       </c>
       <c r="H19">
-        <v>-42.85</v>
+        <v>-45.16</v>
       </c>
       <c r="I19">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="J19">
-        <v>225.08</v>
+        <v>45.35</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1302,28 +1299,28 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>13.26</v>
+        <v>13.11</v>
       </c>
       <c r="D20">
         <v>0.44</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F20">
-        <v>19.39</v>
+        <v>18.35</v>
       </c>
       <c r="H20">
-        <v>-44.52</v>
+        <v>-45.35</v>
       </c>
       <c r="I20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>13.36</v>
+        <v>3.46</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1334,28 +1331,28 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>13.07</v>
+        <v>13.05</v>
       </c>
       <c r="D21">
         <v>0.43</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>18.4</v>
+        <v>18.04</v>
       </c>
       <c r="H21">
-        <v>-45.42</v>
+        <v>-45.68</v>
       </c>
       <c r="I21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1366,28 +1363,28 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>13.04</v>
+        <v>13.03</v>
       </c>
       <c r="D22">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F22">
-        <v>17.74</v>
+        <v>17.91</v>
       </c>
       <c r="H22">
-        <v>-45.96</v>
+        <v>-45.82</v>
       </c>
       <c r="I22">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1398,19 +1395,19 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="D23">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>17.41</v>
+        <v>17.86</v>
       </c>
       <c r="H23">
-        <v>-46.26</v>
+        <v>-46.19</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1419,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1430,19 +1427,19 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.45</v>
+        <v>17.83</v>
       </c>
       <c r="H24">
-        <v>-46.28</v>
+        <v>-46.19</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1451,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1462,19 +1459,19 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>13.01</v>
       </c>
       <c r="D25">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>17.33</v>
+        <v>17.76</v>
       </c>
       <c r="H25">
-        <v>-46.38</v>
+        <v>-46.24</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1483,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1494,28 +1491,28 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>12.99</v>
+        <v>13.01</v>
       </c>
       <c r="D26">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>16.3</v>
+        <v>17.65</v>
       </c>
       <c r="H26">
-        <v>-47.08</v>
+        <v>-46.35</v>
       </c>
       <c r="I26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1526,28 +1523,28 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>12.98</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F27">
-        <v>15.23</v>
+        <v>17.54</v>
       </c>
       <c r="H27">
-        <v>-47.86</v>
+        <v>-46.33</v>
       </c>
       <c r="I27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1558,28 +1555,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.95</v>
+        <v>12.97</v>
       </c>
       <c r="D28">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>14.95</v>
+        <v>17.51</v>
       </c>
       <c r="H28">
-        <v>-48.14</v>
+        <v>-46.32</v>
       </c>
       <c r="I28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,19 +1587,19 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>12.93</v>
+        <v>12.95</v>
       </c>
       <c r="D29">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>14.49</v>
+        <v>17.46</v>
       </c>
       <c r="H29">
-        <v>-48.48</v>
+        <v>-46.23</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1611,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1622,19 +1619,19 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.9</v>
+        <v>12.92</v>
       </c>
       <c r="D30">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30">
-        <v>14.39</v>
+        <v>17.24</v>
       </c>
       <c r="H30">
-        <v>-48.58</v>
+        <v>-46.39</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1643,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1654,19 +1651,19 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.88</v>
+        <v>12.9</v>
       </c>
       <c r="D31">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>14.24</v>
+        <v>16.98</v>
       </c>
       <c r="H31">
-        <v>-48.69</v>
+        <v>-46.59</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1675,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1686,28 +1683,28 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>12.84</v>
+        <v>12.87</v>
       </c>
       <c r="D32">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>14.22</v>
+        <v>17.07</v>
       </c>
       <c r="H32">
-        <v>-48.71</v>
+        <v>-46.44</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1718,28 +1715,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>13.13</v>
+        <v>12.94</v>
       </c>
       <c r="D33">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F33">
+        <v>17.36</v>
+      </c>
+      <c r="H33">
+        <v>-46.18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>14.59</v>
       </c>
-      <c r="H33">
-        <v>-48.42</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>27.88</v>
-      </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1750,28 +1747,28 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.63</v>
+        <v>13.58</v>
       </c>
       <c r="D34">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>16.54</v>
+        <v>17.96</v>
       </c>
       <c r="H34">
-        <v>-46.92</v>
+        <v>-45.51</v>
       </c>
       <c r="I34">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>55.38</v>
+        <v>93.86</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1782,28 +1779,28 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D35">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>21.13</v>
+        <v>18.42</v>
       </c>
       <c r="H35">
-        <v>-43</v>
+        <v>-44.99</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>487.12</v>
+        <v>142.04</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1814,28 +1811,28 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>13.68</v>
+        <v>13.66</v>
       </c>
       <c r="D36">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>23.6</v>
+        <v>19.33</v>
       </c>
       <c r="H36">
-        <v>-40.47</v>
+        <v>-44.35</v>
       </c>
       <c r="I36">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>507.62</v>
+        <v>262.53</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1846,28 +1843,28 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.69</v>
+        <v>13.67</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>23.64</v>
+        <v>21.45</v>
       </c>
       <c r="H37">
-        <v>-40.91</v>
+        <v>-42.53</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>670.36</v>
+        <v>591.17</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1878,28 +1875,28 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>13.7</v>
+        <v>13.69</v>
       </c>
       <c r="D38">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>24.35</v>
+        <v>20.63</v>
       </c>
       <c r="H38">
-        <v>-40.16</v>
+        <v>-43.5</v>
       </c>
       <c r="I38">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>945.3</v>
+        <v>480.43</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1910,28 +1907,28 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>13.71</v>
+        <v>13.69</v>
       </c>
       <c r="D39">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>25.09</v>
+        <v>20.09</v>
       </c>
       <c r="H39">
-        <v>-39.43</v>
+        <v>-44.14</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>867.0700000000001</v>
+        <v>427.77</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1942,28 +1939,28 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>13.72</v>
+        <v>13.69</v>
       </c>
       <c r="D40">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>24.77</v>
+        <v>19.6</v>
       </c>
       <c r="H40">
-        <v>-39.86</v>
+        <v>-44.43</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>516.3</v>
+        <v>192.31</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1974,28 +1971,28 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>13.71</v>
+        <v>13.69</v>
       </c>
       <c r="D41">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>23.85</v>
+        <v>19.01</v>
       </c>
       <c r="H41">
-        <v>-40.5</v>
+        <v>-45.07</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>206.27</v>
+        <v>200.93</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2006,28 +2003,28 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>13.71</v>
+        <v>13.69</v>
       </c>
       <c r="D42">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>23.19</v>
+        <v>19.16</v>
       </c>
       <c r="H42">
-        <v>-40.85</v>
+        <v>-45.01</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>185.35</v>
+        <v>177.45</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2038,28 +2035,28 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>13.69</v>
+        <v>13.55</v>
       </c>
       <c r="D43">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>21.92</v>
+        <v>18.69</v>
       </c>
       <c r="H43">
-        <v>-42.29</v>
+        <v>-45.42</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>60.56</v>
+        <v>41.01</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2070,28 +2067,28 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.15</v>
+        <v>13.1</v>
       </c>
       <c r="D44">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
-        <v>21.74</v>
+        <v>18.66</v>
       </c>
       <c r="H44">
-        <v>-42.74</v>
+        <v>-45.46</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>4.76</v>
+        <v>2.59</v>
       </c>
       <c r="L44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2105,16 +2102,16 @@
         <v>13.06</v>
       </c>
       <c r="D45">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.38</v>
+        <v>18.33</v>
       </c>
       <c r="H45">
-        <v>-43.08</v>
+        <v>-45.75</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2123,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2137,16 +2134,16 @@
         <v>13.05</v>
       </c>
       <c r="D46">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F46">
-        <v>20.99</v>
+        <v>18.15</v>
       </c>
       <c r="H46">
-        <v>-43.34</v>
+        <v>-45.87</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2155,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2169,16 +2166,16 @@
         <v>13.04</v>
       </c>
       <c r="D47">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>21.31</v>
+        <v>18.01</v>
       </c>
       <c r="H47">
-        <v>-43.16</v>
+        <v>-45.98</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2187,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2201,16 +2198,16 @@
         <v>13.03</v>
       </c>
       <c r="D48">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>21.64</v>
+        <v>17.92</v>
       </c>
       <c r="H48">
-        <v>-42.86</v>
+        <v>-46.01</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2219,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2233,16 +2230,16 @@
         <v>13.02</v>
       </c>
       <c r="D49">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>21.43</v>
+        <v>17.76</v>
       </c>
       <c r="H49">
-        <v>-43.05</v>
+        <v>-46.07</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2251,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2265,16 +2262,16 @@
         <v>13.02</v>
       </c>
       <c r="D50">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.4</v>
+        <v>17.58</v>
       </c>
       <c r="H50">
-        <v>-43.13</v>
+        <v>-46.04</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2283,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2297,16 +2294,16 @@
         <v>13.01</v>
       </c>
       <c r="D51">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>21.45</v>
+        <v>17.35</v>
       </c>
       <c r="H51">
-        <v>-43.09</v>
+        <v>-46.14</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2315,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2326,19 +2323,19 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D52">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>21.5</v>
+        <v>17.42</v>
       </c>
       <c r="H52">
-        <v>-43.05</v>
+        <v>-45.95</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2347,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2358,19 +2355,19 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D53">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>21.4</v>
+        <v>17.2</v>
       </c>
       <c r="H53">
-        <v>-43.14</v>
+        <v>-46.01</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2379,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2390,28 +2387,28 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="D54">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>21.37</v>
+        <v>17.08</v>
       </c>
       <c r="H54">
-        <v>-43.15</v>
+        <v>-45.95</v>
       </c>
       <c r="I54">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2425,16 +2422,16 @@
         <v>12.92</v>
       </c>
       <c r="D55">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>21.28</v>
+        <v>17.08</v>
       </c>
       <c r="H55">
-        <v>-43.25</v>
+        <v>-45.96</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2443,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2454,28 +2451,28 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D56">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>21.31</v>
+        <v>16.73</v>
       </c>
       <c r="H56">
-        <v>-43.23</v>
+        <v>-46.16</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2486,28 +2483,28 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>12.92</v>
+        <v>13.21</v>
       </c>
       <c r="D57">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20.68</v>
+        <v>16.81</v>
       </c>
       <c r="H57">
-        <v>-43.71</v>
+        <v>-46.03</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>9.220000000000001</v>
+        <v>34.43</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2518,28 +2515,28 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.5</v>
+        <v>13.64</v>
       </c>
       <c r="D58">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F58">
-        <v>20.87</v>
+        <v>17.49</v>
       </c>
       <c r="H58">
-        <v>-43.4</v>
+        <v>-45.4</v>
       </c>
       <c r="I58">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>58.5</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2550,28 +2547,28 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D59">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>21.11</v>
+        <v>18.57</v>
       </c>
       <c r="H59">
-        <v>-43.23</v>
+        <v>-44.34</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>80.77</v>
+        <v>182.15</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2582,28 +2579,28 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>13.66</v>
+        <v>13.67</v>
       </c>
       <c r="D60">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>21.44</v>
+        <v>19.97</v>
       </c>
       <c r="H60">
-        <v>-42.96</v>
+        <v>-43.72</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>105.06</v>
+        <v>313.48</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2617,25 +2614,25 @@
         <v>13.68</v>
       </c>
       <c r="D61">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>22.65</v>
+        <v>20.95</v>
       </c>
       <c r="H61">
-        <v>-41.86</v>
+        <v>-43.21</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>384.99</v>
+        <v>373.15</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2646,28 +2643,28 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>13.68</v>
+        <v>13.69</v>
       </c>
       <c r="D62">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>22.74</v>
+        <v>21.43</v>
       </c>
       <c r="H62">
-        <v>-41.73</v>
+        <v>-42.85</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>263.69</v>
+        <v>570.15</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2681,25 +2678,25 @@
         <v>13.69</v>
       </c>
       <c r="D63">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>21.53</v>
+        <v>20.78</v>
       </c>
       <c r="H63">
-        <v>-42.78</v>
+        <v>-43.03</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>291.09</v>
+        <v>343.1</v>
       </c>
       <c r="L63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2713,25 +2710,25 @@
         <v>13.69</v>
       </c>
       <c r="D64">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>21.24</v>
+        <v>19.8</v>
       </c>
       <c r="H64">
-        <v>-43.05</v>
+        <v>-43.96</v>
       </c>
       <c r="I64">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>320.53</v>
+        <v>200.54</v>
       </c>
       <c r="L64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2745,25 +2742,25 @@
         <v>13.69</v>
       </c>
       <c r="D65">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="E65">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>19.76</v>
+        <v>19.6</v>
       </c>
       <c r="H65">
-        <v>-44.17</v>
+        <v>-43.98</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>199.66</v>
+        <v>101.83</v>
       </c>
       <c r="L65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2774,28 +2771,28 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>13.69</v>
+        <v>13.59</v>
       </c>
       <c r="D66">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E66">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>18.81</v>
+        <v>18.98</v>
       </c>
       <c r="H66">
-        <v>-44.95</v>
+        <v>-45.02</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>94.87</v>
+        <v>35.72</v>
       </c>
       <c r="L66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2806,28 +2803,28 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.67</v>
+        <v>13.15</v>
       </c>
       <c r="D67">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>18.55</v>
+        <v>18.51</v>
       </c>
       <c r="H67">
-        <v>-45.16</v>
+        <v>-45.25</v>
       </c>
       <c r="I67">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>45.35</v>
+        <v>10.64</v>
       </c>
       <c r="L67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2838,28 +2835,28 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.11</v>
+        <v>13.07</v>
       </c>
       <c r="D68">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>18.35</v>
+        <v>18.52</v>
       </c>
       <c r="H68">
-        <v>-45.35</v>
+        <v>-45.24</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>3.46</v>
+        <v>1.72</v>
       </c>
       <c r="L68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2870,28 +2867,28 @@
         <v>78</v>
       </c>
       <c r="C69">
-        <v>13.05</v>
+        <v>13.06</v>
       </c>
       <c r="D69">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>18.04</v>
+        <v>18.49</v>
       </c>
       <c r="H69">
-        <v>-45.68</v>
+        <v>-45.21</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2902,28 +2899,28 @@
         <v>79</v>
       </c>
       <c r="C70">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="D70">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>17.91</v>
+        <v>18.49</v>
       </c>
       <c r="H70">
-        <v>-45.82</v>
+        <v>-45.08</v>
       </c>
       <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
         <v>0.01</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2937,16 +2934,16 @@
         <v>13.03</v>
       </c>
       <c r="D71">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>17.86</v>
+        <v>18.38</v>
       </c>
       <c r="H71">
-        <v>-46.19</v>
+        <v>-45.06</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2955,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2966,19 +2963,19 @@
         <v>81</v>
       </c>
       <c r="C72">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="D72">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>17.83</v>
+        <v>18.25</v>
       </c>
       <c r="H72">
-        <v>-46.19</v>
+        <v>-45.14</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2987,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3001,16 +2998,16 @@
         <v>13.01</v>
       </c>
       <c r="D73">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>17.76</v>
+        <v>17.95</v>
       </c>
       <c r="H73">
-        <v>-46.24</v>
+        <v>-45.3</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3019,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3033,16 +3030,16 @@
         <v>13.01</v>
       </c>
       <c r="D74">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>17.65</v>
       </c>
       <c r="H74">
-        <v>-46.35</v>
+        <v>-45.45</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3051,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3062,19 +3059,19 @@
         <v>84</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>12.99</v>
       </c>
       <c r="D75">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>17.54</v>
+        <v>17.3</v>
       </c>
       <c r="H75">
-        <v>-46.33</v>
+        <v>-45.62</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3083,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3094,19 +3091,19 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D76">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>17.51</v>
+        <v>17.08</v>
       </c>
       <c r="H76">
-        <v>-46.32</v>
+        <v>-45.8</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3115,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3126,19 +3123,19 @@
         <v>86</v>
       </c>
       <c r="C77">
-        <v>12.95</v>
+        <v>12.94</v>
       </c>
       <c r="D77">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>17.46</v>
+        <v>16.94</v>
       </c>
       <c r="H77">
-        <v>-46.23</v>
+        <v>-45.84</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3147,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3158,19 +3155,19 @@
         <v>87</v>
       </c>
       <c r="C78">
-        <v>12.92</v>
+        <v>12.91</v>
       </c>
       <c r="D78">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E78">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>17.24</v>
+        <v>16.76</v>
       </c>
       <c r="H78">
-        <v>-46.39</v>
+        <v>-45.9</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3179,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3190,19 +3187,19 @@
         <v>88</v>
       </c>
       <c r="C79">
-        <v>12.9</v>
+        <v>12.88</v>
       </c>
       <c r="D79">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="E79">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>16.98</v>
+        <v>16.36</v>
       </c>
       <c r="H79">
-        <v>-46.59</v>
+        <v>-46.19</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3222,28 +3219,28 @@
         <v>89</v>
       </c>
       <c r="C80">
-        <v>12.87</v>
+        <v>12.86</v>
       </c>
       <c r="D80">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>17.07</v>
+        <v>16.18</v>
       </c>
       <c r="H80">
-        <v>-46.44</v>
+        <v>-46.32</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="L80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3254,28 +3251,28 @@
         <v>90</v>
       </c>
       <c r="C81">
-        <v>12.94</v>
+        <v>13.28</v>
       </c>
       <c r="D81">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="E81">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>17.36</v>
+        <v>16.5</v>
       </c>
       <c r="H81">
-        <v>-46.18</v>
+        <v>-45.94</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>14.59</v>
+        <v>46.79</v>
       </c>
       <c r="L81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3286,28 +3283,28 @@
         <v>91</v>
       </c>
       <c r="C82">
-        <v>13.58</v>
+        <v>13.65</v>
       </c>
       <c r="D82">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>17.96</v>
+        <v>17.7</v>
       </c>
       <c r="H82">
-        <v>-45.51</v>
+        <v>-45.09</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>93.86</v>
+        <v>106.62</v>
       </c>
       <c r="L82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3318,28 +3315,28 @@
         <v>92</v>
       </c>
       <c r="C83">
-        <v>13.65</v>
+        <v>13.67</v>
       </c>
       <c r="D83">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>18.42</v>
+        <v>20.26</v>
       </c>
       <c r="H83">
-        <v>-44.99</v>
+        <v>-43.5</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>142.04</v>
+        <v>565.83</v>
       </c>
       <c r="L83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3350,28 +3347,28 @@
         <v>93</v>
       </c>
       <c r="C84">
-        <v>13.66</v>
+        <v>13.69</v>
       </c>
       <c r="D84">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>19.33</v>
+        <v>21.18</v>
       </c>
       <c r="H84">
-        <v>-44.35</v>
+        <v>-42.88</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>262.53</v>
+        <v>677.8</v>
       </c>
       <c r="L84" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3382,28 +3379,28 @@
         <v>94</v>
       </c>
       <c r="C85">
-        <v>13.67</v>
+        <v>13.69</v>
       </c>
       <c r="D85">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>21.45</v>
+        <v>19.92</v>
       </c>
       <c r="H85">
-        <v>-42.53</v>
+        <v>-44.04</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>591.17</v>
+        <v>390.09</v>
       </c>
       <c r="L85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3417,25 +3414,25 @@
         <v>13.69</v>
       </c>
       <c r="D86">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>20.63</v>
+        <v>19.71</v>
       </c>
       <c r="H86">
-        <v>-43.5</v>
+        <v>-44.29</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>480.43</v>
+        <v>319.15</v>
       </c>
       <c r="L86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3455,19 +3452,19 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>20.09</v>
+        <v>19.76</v>
       </c>
       <c r="H87">
-        <v>-44.14</v>
+        <v>-44.2</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>427.77</v>
+        <v>363.38</v>
       </c>
       <c r="L87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3478,28 +3475,28 @@
         <v>97</v>
       </c>
       <c r="C88">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D88">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
       <c r="F88">
-        <v>19.6</v>
+        <v>20.17</v>
       </c>
       <c r="H88">
-        <v>-44.43</v>
+        <v>-43.97</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>192.31</v>
+        <v>275.08</v>
       </c>
       <c r="L88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3510,28 +3507,28 @@
         <v>98</v>
       </c>
       <c r="C89">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D89">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>19.01</v>
+        <v>19.75</v>
       </c>
       <c r="H89">
-        <v>-45.07</v>
+        <v>-44.28</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>200.93</v>
+        <v>168.65</v>
       </c>
       <c r="L89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3542,60 +3539,28 @@
         <v>99</v>
       </c>
       <c r="C90">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D90">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>19.16</v>
+        <v>19.8</v>
       </c>
       <c r="H90">
-        <v>-45.01</v>
+        <v>-44.27</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>177.45</v>
+        <v>139.64</v>
       </c>
       <c r="L90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
-        <v>13.55</v>
-      </c>
-      <c r="D91">
-        <v>0.44</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>18.69</v>
-      </c>
-      <c r="H91">
-        <v>-45.42</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>41.01</v>
-      </c>
-      <c r="L91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>11/8/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 10:00:00 PM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -719,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -751,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -879,7 +882,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -911,7 +914,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -943,7 +946,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -975,7 +978,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1007,7 +1010,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1039,7 +1042,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1071,7 +1074,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1103,7 +1106,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1135,7 +1138,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1167,7 +1170,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1199,7 +1202,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1231,7 +1234,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1263,7 +1266,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1519,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1551,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1647,7 +1650,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1679,7 +1682,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1711,7 +1714,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1743,7 +1746,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1775,7 +1778,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1807,7 +1810,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1839,7 +1842,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1871,7 +1874,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1903,7 +1906,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1935,7 +1938,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1967,7 +1970,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -1999,7 +2002,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2031,7 +2034,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2063,7 +2066,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2095,7 +2098,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2127,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2159,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2287,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2319,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2415,7 +2418,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2447,7 +2450,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2479,7 +2482,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2511,7 +2514,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2543,7 +2546,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2575,7 +2578,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2607,7 +2610,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2639,7 +2642,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2671,7 +2674,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2703,7 +2706,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2735,7 +2738,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2767,7 +2770,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2799,7 +2802,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2863,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2895,7 +2898,39 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>81</v>
+      </c>
+      <c r="C72">
+        <v>13.02</v>
+      </c>
+      <c r="D72">
+        <v>0.44</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>17.85</v>
+      </c>
+      <c r="H72">
+        <v>-45.93</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>11/8/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/8/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/9/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -620,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -754,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -786,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -882,7 +888,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -914,7 +920,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -946,7 +952,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -978,7 +984,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,7 +1016,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1042,7 +1048,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1074,7 +1080,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1106,7 +1112,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1138,7 +1144,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1170,7 +1176,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1202,7 +1208,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1234,7 +1240,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1266,7 +1272,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1298,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1330,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1394,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1426,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1458,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1490,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1522,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1554,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1618,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1650,7 +1656,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1682,7 +1688,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1714,7 +1720,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1746,7 +1752,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1778,7 +1784,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1810,7 +1816,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1842,7 +1848,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1874,7 +1880,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1906,7 +1912,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1938,7 +1944,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1970,7 +1976,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2002,7 +2008,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2034,7 +2040,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2066,7 +2072,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2098,7 +2104,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2130,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2162,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2226,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2258,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2290,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2322,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2354,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2386,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2418,7 +2424,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2450,7 +2456,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2482,7 +2488,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2514,7 +2520,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2546,7 +2552,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2578,7 +2584,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2610,7 +2616,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2642,7 +2648,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2674,7 +2680,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2706,7 +2712,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2738,7 +2744,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2770,7 +2776,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2802,7 +2808,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2834,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2866,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2898,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2930,7 +2936,71 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>82</v>
+      </c>
+      <c r="C73">
+        <v>13.01</v>
+      </c>
+      <c r="D73">
+        <v>0.44</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>17.74</v>
+      </c>
+      <c r="H73">
+        <v>-45.91</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
+        <v>13.01</v>
+      </c>
+      <c r="D74">
+        <v>0.44</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>17.53</v>
+      </c>
+      <c r="H74">
+        <v>-45.98</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>11/9/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 1:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -728,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -888,7 +891,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,7 +923,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -952,7 +955,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -984,7 +987,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1016,7 +1019,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,7 +1051,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,7 +1083,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1112,7 +1115,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1144,7 +1147,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1176,7 +1179,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1208,7 +1211,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1240,7 +1243,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1272,7 +1275,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1304,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1336,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1432,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1464,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1528,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1560,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1656,7 +1659,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1688,7 +1691,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1720,7 +1723,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1752,7 +1755,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1784,7 +1787,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1816,7 +1819,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1851,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1880,7 +1883,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1912,7 +1915,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,7 +1947,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1976,7 +1979,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2008,7 +2011,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2040,7 +2043,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2072,7 +2075,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2104,7 +2107,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2168,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2232,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2264,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2328,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2360,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2392,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2424,7 +2427,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2456,7 +2459,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2488,7 +2491,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2520,7 +2523,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2552,7 +2555,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2584,7 +2587,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2616,7 +2619,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2648,7 +2651,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2680,7 +2683,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2712,7 +2715,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2744,7 +2747,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2776,7 +2779,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2808,7 +2811,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2840,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2872,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2904,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2968,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3000,7 +3003,39 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
+      </c>
+      <c r="C75">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>0.44</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>17.4</v>
+      </c>
+      <c r="H75">
+        <v>-45.93</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>11/9/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -795,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -891,7 +897,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -923,7 +929,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -955,7 +961,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -987,7 +993,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1019,7 +1025,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1051,7 +1057,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1083,7 +1089,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1115,7 +1121,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1147,7 +1153,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1179,7 +1185,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1211,7 +1217,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1243,7 +1249,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1275,7 +1281,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1307,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1339,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1371,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1403,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1435,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1467,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1499,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1531,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1595,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1627,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1659,7 +1665,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1691,7 +1697,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1723,7 +1729,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1755,7 +1761,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1787,7 +1793,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1819,7 +1825,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1851,7 +1857,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1883,7 +1889,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1915,7 +1921,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1947,7 +1953,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1979,7 +1985,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2011,7 +2017,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2043,7 +2049,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2075,7 +2081,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2107,7 +2113,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2203,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2235,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2267,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2299,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2363,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2395,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2427,7 +2433,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2459,7 +2465,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2491,7 +2497,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2523,7 +2529,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2555,7 +2561,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2587,7 +2593,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2619,7 +2625,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2651,7 +2657,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2683,7 +2689,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2715,7 +2721,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2747,7 +2753,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2779,7 +2785,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2811,7 +2817,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2843,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2875,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2907,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2939,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3003,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3035,7 +3041,71 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>85</v>
+      </c>
+      <c r="C76">
+        <v>12.97</v>
+      </c>
+      <c r="D76">
+        <v>0.44</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>16.95</v>
+      </c>
+      <c r="H76">
+        <v>-46.13</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>12.94</v>
+      </c>
+      <c r="D77">
+        <v>0.44</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>16.3</v>
+      </c>
+      <c r="H77">
+        <v>-46.62</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>11/9/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -897,7 +903,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -929,7 +935,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -961,7 +967,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -993,7 +999,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1025,7 +1031,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,7 +1063,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1089,7 +1095,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1121,7 +1127,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1153,7 +1159,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1185,7 +1191,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,7 +1223,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1249,7 +1255,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1281,7 +1287,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1473,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1665,7 +1671,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1697,7 +1703,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1729,7 +1735,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1761,7 +1767,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1793,7 +1799,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1825,7 +1831,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1857,7 +1863,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1889,7 +1895,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1921,7 +1927,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1953,7 +1959,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1985,7 +1991,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2017,7 +2023,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2049,7 +2055,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2081,7 +2087,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2113,7 +2119,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2401,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2433,7 +2439,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2465,7 +2471,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2497,7 +2503,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2529,7 +2535,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2561,7 +2567,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2593,7 +2599,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2625,7 +2631,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2657,7 +2663,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2689,7 +2695,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2721,7 +2727,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2753,7 +2759,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2785,7 +2791,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2817,7 +2823,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2945,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3041,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3105,7 +3111,71 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
+      </c>
+      <c r="C78">
+        <v>12.92</v>
+      </c>
+      <c r="D78">
+        <v>0.43</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>16.03</v>
+      </c>
+      <c r="H78">
+        <v>-46.85</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>12.89</v>
+      </c>
+      <c r="D79">
+        <v>0.43</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>16.41</v>
+      </c>
+      <c r="H79">
+        <v>-46.57</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>11/9/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 6:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -743,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -807,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -903,7 +906,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -935,7 +938,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -967,7 +970,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -999,7 +1002,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1031,7 +1034,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1063,7 +1066,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,7 +1098,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1127,7 +1130,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1159,7 +1162,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1191,7 +1194,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1223,7 +1226,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,7 +1258,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1287,7 +1290,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1511,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1575,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1607,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1671,7 +1674,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1703,7 +1706,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1735,7 +1738,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1767,7 +1770,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1799,7 +1802,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1831,7 +1834,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1863,7 +1866,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1895,7 +1898,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1927,7 +1930,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1959,7 +1962,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1991,7 +1994,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2023,7 +2026,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2055,7 +2058,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2087,7 +2090,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2119,7 +2122,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2279,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2311,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2343,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2375,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2407,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2439,7 +2442,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2471,7 +2474,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2503,7 +2506,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2535,7 +2538,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2567,7 +2570,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2599,7 +2602,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2631,7 +2634,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2663,7 +2666,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2695,7 +2698,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2727,7 +2730,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2759,7 +2762,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2791,7 +2794,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2823,7 +2826,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2887,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2919,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2951,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3015,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3079,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3111,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3175,7 +3178,39 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>89</v>
+      </c>
+      <c r="C80">
+        <v>12.87</v>
+      </c>
+      <c r="D80">
+        <v>0.43</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>16.12</v>
+      </c>
+      <c r="H80">
+        <v>-46.65</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.03</v>
+      </c>
+      <c r="L80" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>11/9/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -644,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -746,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -842,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -874,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -906,7 +912,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -938,7 +944,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -970,7 +976,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1002,7 +1008,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1034,7 +1040,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1066,7 +1072,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1098,7 +1104,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1130,7 +1136,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,7 +1168,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1194,7 +1200,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1226,7 +1232,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1258,7 +1264,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1290,7 +1296,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1354,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1418,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1450,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1514,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1578,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1610,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1642,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1674,7 +1680,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1706,7 +1712,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1738,7 +1744,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1770,7 +1776,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1802,7 +1808,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1834,7 +1840,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1866,7 +1872,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1898,7 +1904,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1930,7 +1936,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1962,7 +1968,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1994,7 +2000,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2026,7 +2032,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2058,7 +2064,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2090,7 +2096,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2122,7 +2128,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2154,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2186,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2218,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2250,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2282,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2314,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2378,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2410,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2442,7 +2448,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2474,7 +2480,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2506,7 +2512,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2538,7 +2544,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2570,7 +2576,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2602,7 +2608,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2634,7 +2640,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2666,7 +2672,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2698,7 +2704,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2730,7 +2736,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2762,7 +2768,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2794,7 +2800,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2826,7 +2832,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2890,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2922,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2954,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2986,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3018,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3050,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3082,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3114,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3146,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3178,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3210,7 +3216,71 @@
         <v>0.03</v>
       </c>
       <c r="L80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>90</v>
+      </c>
+      <c r="C81">
+        <v>12.88</v>
+      </c>
+      <c r="D81">
+        <v>0.44</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>16.56</v>
+      </c>
+      <c r="H81">
+        <v>-46.27</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>9.92</v>
+      </c>
+      <c r="L81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82">
+        <v>13.57</v>
+      </c>
+      <c r="D82">
+        <v>0.46</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>17.37</v>
+      </c>
+      <c r="H82">
+        <v>-45.41</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>117.02</v>
+      </c>
+      <c r="L82" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
   <si>
     <t>Fecha</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>11/9/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/9/2020 9:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -784,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -816,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -912,7 +915,7 @@
         <v>0.03</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -944,7 +947,7 @@
         <v>14.59</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -976,7 +979,7 @@
         <v>93.86</v>
       </c>
       <c r="L10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1008,7 +1011,7 @@
         <v>142.04</v>
       </c>
       <c r="L11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1040,7 +1043,7 @@
         <v>262.53</v>
       </c>
       <c r="L12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1072,7 +1075,7 @@
         <v>591.17</v>
       </c>
       <c r="L13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1104,7 +1107,7 @@
         <v>480.43</v>
       </c>
       <c r="L14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1136,7 +1139,7 @@
         <v>427.77</v>
       </c>
       <c r="L15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1168,7 +1171,7 @@
         <v>192.31</v>
       </c>
       <c r="L16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,7 +1203,7 @@
         <v>200.93</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1232,7 +1235,7 @@
         <v>177.45</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1264,7 +1267,7 @@
         <v>41.01</v>
       </c>
       <c r="L19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1296,7 +1299,7 @@
         <v>2.59</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1328,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1520,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1584,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1648,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1680,7 +1683,7 @@
         <v>0.37</v>
       </c>
       <c r="L32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1712,7 +1715,7 @@
         <v>34.43</v>
       </c>
       <c r="L33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1744,7 +1747,7 @@
         <v>78.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1776,7 +1779,7 @@
         <v>182.15</v>
       </c>
       <c r="L35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1808,7 +1811,7 @@
         <v>313.48</v>
       </c>
       <c r="L36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1840,7 +1843,7 @@
         <v>373.15</v>
       </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1872,7 +1875,7 @@
         <v>570.15</v>
       </c>
       <c r="L38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1904,7 +1907,7 @@
         <v>343.1</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1936,7 +1939,7 @@
         <v>200.54</v>
       </c>
       <c r="L40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1968,7 +1971,7 @@
         <v>101.83</v>
       </c>
       <c r="L41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2000,7 +2003,7 @@
         <v>35.72</v>
       </c>
       <c r="L42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2032,7 +2035,7 @@
         <v>10.64</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2064,7 +2067,7 @@
         <v>1.72</v>
       </c>
       <c r="L44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2096,7 +2099,7 @@
         <v>0.01</v>
       </c>
       <c r="L45" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2128,7 +2131,7 @@
         <v>0.01</v>
       </c>
       <c r="L46" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2160,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2192,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2224,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2256,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2288,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2320,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2352,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2384,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2416,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2448,7 +2451,7 @@
         <v>0.3</v>
       </c>
       <c r="L56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2480,7 +2483,7 @@
         <v>46.79</v>
       </c>
       <c r="L57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2512,7 +2515,7 @@
         <v>106.62</v>
       </c>
       <c r="L58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2544,7 +2547,7 @@
         <v>565.83</v>
       </c>
       <c r="L59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2576,7 +2579,7 @@
         <v>677.8</v>
       </c>
       <c r="L60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2608,7 +2611,7 @@
         <v>390.09</v>
       </c>
       <c r="L61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2640,7 +2643,7 @@
         <v>319.15</v>
       </c>
       <c r="L62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2672,7 +2675,7 @@
         <v>363.38</v>
       </c>
       <c r="L63" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2704,7 +2707,7 @@
         <v>275.08</v>
       </c>
       <c r="L64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2736,7 +2739,7 @@
         <v>168.65</v>
       </c>
       <c r="L65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2768,7 +2771,7 @@
         <v>139.64</v>
       </c>
       <c r="L66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2800,7 +2803,7 @@
         <v>26.7</v>
       </c>
       <c r="L67" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2832,7 +2835,7 @@
         <v>2.26</v>
       </c>
       <c r="L68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2864,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2896,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2928,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2960,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2992,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3024,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3056,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3088,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3120,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3152,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3184,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3216,7 +3219,7 @@
         <v>0.03</v>
       </c>
       <c r="L80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3248,7 +3251,7 @@
         <v>9.92</v>
       </c>
       <c r="L81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3280,7 +3283,39 @@
         <v>117.02</v>
       </c>
       <c r="L82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
+      </c>
+      <c r="C83">
+        <v>13.66</v>
+      </c>
+      <c r="D83">
+        <v>0.48</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>19.1</v>
+      </c>
+      <c r="H83">
+        <v>-44.32</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>324.05</v>
+      </c>
+      <c r="L83" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,250 +49,274 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/6/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/6/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/6/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/7/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/7/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/8/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/8/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/9/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/9/2020 9:00:00 AM</t>
+    <t>11/10/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/10/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/10/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/11/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/11/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/12/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/13/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 5:00:00 PM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -653,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,19 +726,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D2">
         <v>0.43</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>17.65</v>
+        <v>17.71</v>
       </c>
       <c r="H2">
-        <v>-46.35</v>
+        <v>-46.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -723,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -734,19 +758,19 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>13.01</v>
       </c>
       <c r="D3">
         <v>0.43</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>17.54</v>
+        <v>17.39</v>
       </c>
       <c r="H3">
-        <v>-46.33</v>
+        <v>-46.53</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -755,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,19 +790,19 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12.97</v>
+        <v>12.98</v>
       </c>
       <c r="D4">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>17.51</v>
+        <v>16.92</v>
       </c>
       <c r="H4">
-        <v>-46.32</v>
+        <v>-46.77</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -787,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -798,19 +822,19 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>12.95</v>
+        <v>12.97</v>
       </c>
       <c r="D5">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>17.46</v>
+        <v>16.01</v>
       </c>
       <c r="H5">
-        <v>-46.23</v>
+        <v>-47.39</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -819,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -830,19 +854,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.92</v>
+        <v>12.94</v>
       </c>
       <c r="D6">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>17.24</v>
+        <v>15.07</v>
       </c>
       <c r="H6">
-        <v>-46.39</v>
+        <v>-48.27</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -851,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -862,19 +886,19 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12.9</v>
+        <v>12.92</v>
       </c>
       <c r="D7">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>16.98</v>
+        <v>14.09</v>
       </c>
       <c r="H7">
-        <v>-46.59</v>
+        <v>-48.9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -883,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -894,28 +918,28 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.87</v>
+        <v>12.89</v>
       </c>
       <c r="D8">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>17.07</v>
+        <v>13.28</v>
       </c>
       <c r="H8">
-        <v>-46.44</v>
+        <v>-49.55</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -926,28 +950,28 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>12.94</v>
+        <v>12.93</v>
       </c>
       <c r="D9">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="E9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>17.36</v>
+        <v>12.84</v>
       </c>
       <c r="H9">
-        <v>-46.18</v>
+        <v>-49.99</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>14.59</v>
+        <v>13.24</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -958,28 +982,28 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.58</v>
+        <v>13.48</v>
       </c>
       <c r="D10">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.96</v>
+        <v>13.78</v>
       </c>
       <c r="H10">
-        <v>-45.51</v>
+        <v>-49.16</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>93.86</v>
+        <v>44.55</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -993,25 +1017,25 @@
         <v>13.65</v>
       </c>
       <c r="D11">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.42</v>
+        <v>17.44</v>
       </c>
       <c r="H11">
-        <v>-44.99</v>
+        <v>-45.98</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>142.04</v>
+        <v>521.08</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1022,28 +1046,28 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>13.66</v>
+        <v>13.68</v>
       </c>
       <c r="D12">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.33</v>
+        <v>20.32</v>
       </c>
       <c r="H12">
-        <v>-44.35</v>
+        <v>-43.6</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J12">
-        <v>262.53</v>
+        <v>759.74</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1054,28 +1078,28 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>13.67</v>
+        <v>13.7</v>
       </c>
       <c r="D13">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.45</v>
+        <v>21.95</v>
       </c>
       <c r="H13">
-        <v>-42.53</v>
+        <v>-41.47</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>591.17</v>
+        <v>916.97</v>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,28 +1110,28 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D14">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.63</v>
+        <v>22.08</v>
       </c>
       <c r="H14">
-        <v>-43.5</v>
+        <v>-40.79</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>480.43</v>
+        <v>966.02</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1118,28 +1142,28 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D15">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.09</v>
+        <v>21.86</v>
       </c>
       <c r="H15">
-        <v>-44.14</v>
+        <v>-41.32</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>427.77</v>
+        <v>919.92</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1150,28 +1174,28 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>13.69</v>
+        <v>13.72</v>
       </c>
       <c r="D16">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.6</v>
+        <v>22.22</v>
       </c>
       <c r="H16">
-        <v>-44.43</v>
+        <v>-41.49</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>192.31</v>
+        <v>758.29</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1182,28 +1206,28 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>13.69</v>
+        <v>13.73</v>
       </c>
       <c r="D17">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.01</v>
+        <v>22.4</v>
       </c>
       <c r="H17">
-        <v>-45.07</v>
+        <v>-41.47</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J17">
-        <v>200.93</v>
+        <v>613.15</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1214,28 +1238,28 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.69</v>
+        <v>13.72</v>
       </c>
       <c r="D18">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.16</v>
+        <v>21</v>
       </c>
       <c r="H18">
-        <v>-45.01</v>
+        <v>-43.04</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>177.45</v>
+        <v>273.35</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1246,28 +1270,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.55</v>
+        <v>13.67</v>
       </c>
       <c r="D19">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.69</v>
+        <v>19.98</v>
       </c>
       <c r="H19">
-        <v>-45.42</v>
+        <v>-44.02</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>41.01</v>
+        <v>111.49</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1278,28 +1302,28 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>13.1</v>
+        <v>13.13</v>
       </c>
       <c r="D20">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>18.66</v>
+        <v>18.63</v>
       </c>
       <c r="H20">
-        <v>-45.46</v>
+        <v>-45.57</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2.59</v>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1310,19 +1334,19 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>13.06</v>
+        <v>13.07</v>
       </c>
       <c r="D21">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.33</v>
+        <v>17.9</v>
       </c>
       <c r="H21">
-        <v>-45.75</v>
+        <v>-46.21</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1331,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1342,19 +1366,19 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>13.05</v>
+        <v>13.04</v>
       </c>
       <c r="D22">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>18.15</v>
+        <v>17.22</v>
       </c>
       <c r="H22">
-        <v>-45.87</v>
+        <v>-46.72</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1363,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1374,19 +1398,19 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>13.04</v>
+        <v>13.02</v>
       </c>
       <c r="D23">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.01</v>
+        <v>17.46</v>
       </c>
       <c r="H23">
-        <v>-45.98</v>
+        <v>-46.52</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1395,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,19 +1430,19 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>13.03</v>
+        <v>13.01</v>
       </c>
       <c r="D24">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F24">
-        <v>17.92</v>
+        <v>17.46</v>
       </c>
       <c r="H24">
-        <v>-46.01</v>
+        <v>-46.52</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1427,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,19 +1462,19 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.76</v>
+        <v>17.36</v>
       </c>
       <c r="H25">
-        <v>-46.07</v>
+        <v>-46.77</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1459,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1470,28 +1494,28 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>17.58</v>
+        <v>17.34</v>
       </c>
       <c r="H26">
-        <v>-46.04</v>
+        <v>-46.82</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1502,28 +1526,28 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>13.01</v>
+        <v>12.99</v>
       </c>
       <c r="D27">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F27">
-        <v>17.35</v>
+        <v>17.1</v>
       </c>
       <c r="H27">
-        <v>-46.14</v>
+        <v>-46.97</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1534,28 +1558,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.98</v>
+        <v>12.97</v>
       </c>
       <c r="D28">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>17.42</v>
+        <v>16.92</v>
       </c>
       <c r="H28">
-        <v>-45.95</v>
+        <v>-47.06</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1566,28 +1590,28 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>12.96</v>
+        <v>12.95</v>
       </c>
       <c r="D29">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>17.2</v>
+        <v>16.1</v>
       </c>
       <c r="H29">
-        <v>-46.01</v>
+        <v>-47.45</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1598,28 +1622,28 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.94</v>
+        <v>12.92</v>
       </c>
       <c r="D30">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>17.08</v>
+        <v>15.5</v>
       </c>
       <c r="H30">
-        <v>-45.95</v>
+        <v>-47.49</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L30" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1630,28 +1654,28 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D31">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F31">
-        <v>17.08</v>
+        <v>15.43</v>
       </c>
       <c r="H31">
-        <v>-45.96</v>
+        <v>-47.62</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1662,28 +1686,28 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="D32">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>16.73</v>
+        <v>14.54</v>
       </c>
       <c r="H32">
-        <v>-46.16</v>
+        <v>-47.54</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="L32" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1694,28 +1718,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>13.21</v>
+        <v>12.96</v>
       </c>
       <c r="D33">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>16.81</v>
+        <v>14.02</v>
       </c>
       <c r="H33">
-        <v>-46.03</v>
+        <v>-48.36</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>34.43</v>
+        <v>15.31</v>
       </c>
       <c r="L33" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1726,28 +1750,28 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.64</v>
+        <v>13.51</v>
       </c>
       <c r="D34">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>17.49</v>
+        <v>14.51</v>
       </c>
       <c r="H34">
-        <v>-45.4</v>
+        <v>-48.1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>78.45999999999999</v>
+        <v>49.79</v>
       </c>
       <c r="L34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1758,28 +1782,28 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D35">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>18.57</v>
+        <v>17.63</v>
       </c>
       <c r="H35">
-        <v>-44.34</v>
+        <v>-45.5</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>182.15</v>
+        <v>502.9</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1790,28 +1814,28 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>13.67</v>
+        <v>13.68</v>
       </c>
       <c r="D36">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>19.97</v>
+        <v>19.66</v>
       </c>
       <c r="H36">
-        <v>-43.72</v>
+        <v>-44.06</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>313.48</v>
+        <v>597.84</v>
       </c>
       <c r="L36" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1822,7 +1846,7 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.68</v>
+        <v>13.69</v>
       </c>
       <c r="D37">
         <v>0.49</v>
@@ -1831,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>20.95</v>
+        <v>20.39</v>
       </c>
       <c r="H37">
-        <v>-43.21</v>
+        <v>-43.37</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>373.15</v>
+        <v>686.8099999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1857,25 +1881,25 @@
         <v>13.69</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>21.43</v>
+        <v>20.28</v>
       </c>
       <c r="H38">
-        <v>-42.85</v>
+        <v>-43.56</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>570.15</v>
+        <v>673</v>
       </c>
       <c r="L38" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1889,25 +1913,25 @@
         <v>13.69</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>20.78</v>
+        <v>19.97</v>
       </c>
       <c r="H39">
-        <v>-43.03</v>
+        <v>-43.88</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>343.1</v>
+        <v>359.07</v>
       </c>
       <c r="L39" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1918,28 +1942,28 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D40">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>19.8</v>
+        <v>20.45</v>
       </c>
       <c r="H40">
-        <v>-43.96</v>
+        <v>-43.54</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>200.54</v>
+        <v>330.07</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1950,28 +1974,28 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D41">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>19.6</v>
+        <v>21.8</v>
       </c>
       <c r="H41">
-        <v>-43.98</v>
+        <v>-42.06</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>101.83</v>
+        <v>597.52</v>
       </c>
       <c r="L41" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,28 +2006,28 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>13.59</v>
+        <v>13.71</v>
       </c>
       <c r="D42">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>18.98</v>
+        <v>20.37</v>
       </c>
       <c r="H42">
-        <v>-45.02</v>
+        <v>-43.32</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>35.72</v>
+        <v>163.23</v>
       </c>
       <c r="L42" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2014,28 +2038,28 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>13.15</v>
+        <v>13.69</v>
       </c>
       <c r="D43">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>18.51</v>
+        <v>19.4</v>
       </c>
       <c r="H43">
-        <v>-45.25</v>
+        <v>-44.16</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J43">
-        <v>10.64</v>
+        <v>51.68</v>
       </c>
       <c r="L43" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2046,28 +2070,28 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.07</v>
+        <v>13.21</v>
       </c>
       <c r="D44">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>18.52</v>
+        <v>18.8</v>
       </c>
       <c r="H44">
-        <v>-45.24</v>
+        <v>-45.22</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J44">
-        <v>1.72</v>
+        <v>7.37</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2078,28 +2102,28 @@
         <v>54</v>
       </c>
       <c r="C45">
-        <v>13.06</v>
+        <v>13.07</v>
       </c>
       <c r="D45">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.49</v>
+        <v>18.51</v>
       </c>
       <c r="H45">
-        <v>-45.21</v>
+        <v>-45.4</v>
       </c>
       <c r="I45">
         <v>0.01</v>
       </c>
       <c r="J45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2110,28 +2134,28 @@
         <v>55</v>
       </c>
       <c r="C46">
-        <v>13.04</v>
+        <v>13.05</v>
       </c>
       <c r="D46">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>18.49</v>
+        <v>18.23</v>
       </c>
       <c r="H46">
-        <v>-45.08</v>
+        <v>-45.67</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2142,19 +2166,19 @@
         <v>56</v>
       </c>
       <c r="C47">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="D47">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>18.38</v>
+        <v>17.95</v>
       </c>
       <c r="H47">
-        <v>-45.06</v>
+        <v>-46.1</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2163,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2177,16 +2201,16 @@
         <v>13.03</v>
       </c>
       <c r="D48">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>18.25</v>
+        <v>18.04</v>
       </c>
       <c r="H48">
-        <v>-45.14</v>
+        <v>-45.98</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2195,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2206,19 +2230,19 @@
         <v>58</v>
       </c>
       <c r="C49">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D49">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>17.95</v>
+        <v>18.11</v>
       </c>
       <c r="H49">
-        <v>-45.3</v>
+        <v>-45.86</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2227,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2238,19 +2262,19 @@
         <v>59</v>
       </c>
       <c r="C50">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D50">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>17.65</v>
+        <v>17.85</v>
       </c>
       <c r="H50">
-        <v>-45.45</v>
+        <v>-45.98</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2259,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2270,19 +2294,19 @@
         <v>60</v>
       </c>
       <c r="C51">
-        <v>12.99</v>
+        <v>13.01</v>
       </c>
       <c r="D51">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>17.3</v>
+        <v>17.08</v>
       </c>
       <c r="H51">
-        <v>-45.62</v>
+        <v>-46.62</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2291,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2302,19 +2326,19 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.96</v>
+        <v>12.98</v>
       </c>
       <c r="D52">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>17.08</v>
+        <v>16.15</v>
       </c>
       <c r="H52">
-        <v>-45.8</v>
+        <v>-47.26</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2323,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2334,19 +2358,19 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.94</v>
+        <v>12.95</v>
       </c>
       <c r="D53">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.94</v>
+        <v>15.3</v>
       </c>
       <c r="H53">
-        <v>-45.84</v>
+        <v>-47.96</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2355,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2366,19 +2390,19 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.91</v>
+        <v>12.92</v>
       </c>
       <c r="D54">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>16.76</v>
+        <v>14.13</v>
       </c>
       <c r="H54">
-        <v>-45.9</v>
+        <v>-48.55</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2387,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2398,19 +2422,19 @@
         <v>64</v>
       </c>
       <c r="C55">
-        <v>12.88</v>
+        <v>12.89</v>
       </c>
       <c r="D55">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>16.36</v>
+        <v>13.2</v>
       </c>
       <c r="H55">
-        <v>-46.19</v>
+        <v>-49.64</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2419,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2433,25 +2457,25 @@
         <v>12.86</v>
       </c>
       <c r="D56">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>16.18</v>
+        <v>12.49</v>
       </c>
       <c r="H56">
-        <v>-46.32</v>
+        <v>-50.3</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="L56" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2462,28 +2486,28 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>13.28</v>
+        <v>12.9</v>
       </c>
       <c r="D57">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>16.5</v>
+        <v>12.35</v>
       </c>
       <c r="H57">
-        <v>-45.94</v>
+        <v>-50.5</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>46.79</v>
+        <v>12.17</v>
       </c>
       <c r="L57" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2494,28 +2518,28 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.65</v>
+        <v>13.46</v>
       </c>
       <c r="D58">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>17.7</v>
+        <v>13.25</v>
       </c>
       <c r="H58">
-        <v>-45.09</v>
+        <v>-49.7</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>106.62</v>
+        <v>46.64</v>
       </c>
       <c r="L58" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2526,28 +2550,28 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.67</v>
+        <v>13.65</v>
       </c>
       <c r="D59">
-        <v>0.49</v>
+        <v>0.43</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>20.26</v>
+        <v>17.06</v>
       </c>
       <c r="H59">
-        <v>-43.5</v>
+        <v>-46.56</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>565.83</v>
+        <v>512.77</v>
       </c>
       <c r="L59" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2558,28 +2582,28 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>13.69</v>
+        <v>13.68</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>21.18</v>
+        <v>20.26</v>
       </c>
       <c r="H60">
-        <v>-42.88</v>
+        <v>-43.73</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J60">
-        <v>677.8</v>
+        <v>740.3099999999999</v>
       </c>
       <c r="L60" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2590,28 +2614,28 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D61">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>19.92</v>
+        <v>22.33</v>
       </c>
       <c r="H61">
-        <v>-44.04</v>
+        <v>-41.32</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>390.09</v>
+        <v>887.41</v>
       </c>
       <c r="L61" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2622,28 +2646,28 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D62">
-        <v>0.47</v>
+        <v>0.54</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>19.71</v>
+        <v>22.73</v>
       </c>
       <c r="H62">
-        <v>-44.29</v>
+        <v>-40.89</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J62">
-        <v>319.15</v>
+        <v>898.12</v>
       </c>
       <c r="L62" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2654,28 +2678,28 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>13.69</v>
+        <v>13.72</v>
       </c>
       <c r="D63">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>19.76</v>
+        <v>22.53</v>
       </c>
       <c r="H63">
-        <v>-44.2</v>
+        <v>-40.86</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>363.38</v>
+        <v>870.48</v>
       </c>
       <c r="L63" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2686,28 +2710,28 @@
         <v>73</v>
       </c>
       <c r="C64">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="D64">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>20.17</v>
+        <v>23.08</v>
       </c>
       <c r="H64">
-        <v>-43.97</v>
+        <v>-40.57</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J64">
-        <v>275.08</v>
+        <v>791.96</v>
       </c>
       <c r="L64" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2718,28 +2742,28 @@
         <v>74</v>
       </c>
       <c r="C65">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="D65">
-        <v>0.46</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>19.75</v>
+        <v>23.43</v>
       </c>
       <c r="H65">
-        <v>-44.28</v>
+        <v>-40.16</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J65">
-        <v>168.65</v>
+        <v>649.84</v>
       </c>
       <c r="L65" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2750,28 +2774,28 @@
         <v>75</v>
       </c>
       <c r="C66">
-        <v>13.7</v>
+        <v>13.73</v>
       </c>
       <c r="D66">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>19.8</v>
+        <v>22.79</v>
       </c>
       <c r="H66">
-        <v>-44.27</v>
+        <v>-41.24</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>139.64</v>
+        <v>433.54</v>
       </c>
       <c r="L66" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2782,28 +2806,28 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.31</v>
+        <v>13.71</v>
       </c>
       <c r="D67">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>19.3</v>
+        <v>21.24</v>
       </c>
       <c r="H67">
-        <v>-44.89</v>
+        <v>-42.83</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>26.7</v>
+        <v>162.64</v>
       </c>
       <c r="L67" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2814,7 +2838,7 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.08</v>
+        <v>13.2</v>
       </c>
       <c r="D68">
         <v>0.45</v>
@@ -2823,19 +2847,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>18.79</v>
+        <v>19.31</v>
       </c>
       <c r="H68">
-        <v>-45.36</v>
+        <v>-44.89</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>2.26</v>
+        <v>8.18</v>
       </c>
       <c r="L68" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2846,19 +2870,19 @@
         <v>78</v>
       </c>
       <c r="C69">
-        <v>13.05</v>
+        <v>13.07</v>
       </c>
       <c r="D69">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>18.49</v>
+        <v>18.52</v>
       </c>
       <c r="H69">
-        <v>-45.62</v>
+        <v>-45.71</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2867,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2878,19 +2902,19 @@
         <v>79</v>
       </c>
       <c r="C70">
-        <v>13.04</v>
+        <v>13.05</v>
       </c>
       <c r="D70">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>18.13</v>
+        <v>17.54</v>
       </c>
       <c r="H70">
-        <v>-45.88</v>
+        <v>-46.3</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2899,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2913,16 +2937,16 @@
         <v>13.03</v>
       </c>
       <c r="D71">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>17.91</v>
+        <v>16.51</v>
       </c>
       <c r="H71">
-        <v>-45.96</v>
+        <v>-47.04</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2931,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2942,19 +2966,19 @@
         <v>81</v>
       </c>
       <c r="C72">
-        <v>13.02</v>
+        <v>13.01</v>
       </c>
       <c r="D72">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>17.85</v>
+        <v>16</v>
       </c>
       <c r="H72">
-        <v>-45.93</v>
+        <v>-47.26</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2963,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2974,19 +2998,19 @@
         <v>82</v>
       </c>
       <c r="C73">
-        <v>13.01</v>
+        <v>12.99</v>
       </c>
       <c r="D73">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>17.74</v>
+        <v>15.11</v>
       </c>
       <c r="H73">
-        <v>-45.91</v>
+        <v>-47.6</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -2995,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3006,19 +3030,19 @@
         <v>83</v>
       </c>
       <c r="C74">
-        <v>13.01</v>
+        <v>12.98</v>
       </c>
       <c r="D74">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>17.53</v>
+        <v>14.16</v>
       </c>
       <c r="H74">
-        <v>-45.98</v>
+        <v>-48.24</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3027,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3038,19 +3062,19 @@
         <v>84</v>
       </c>
       <c r="C75">
-        <v>13</v>
+        <v>12.97</v>
       </c>
       <c r="D75">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>17.4</v>
+        <v>13.6</v>
       </c>
       <c r="H75">
-        <v>-45.93</v>
+        <v>-48.65</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3059,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3070,19 +3094,19 @@
         <v>85</v>
       </c>
       <c r="C76">
-        <v>12.97</v>
+        <v>12.94</v>
       </c>
       <c r="D76">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>16.95</v>
+        <v>13.03</v>
       </c>
       <c r="H76">
-        <v>-46.13</v>
+        <v>-49.18</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3091,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3102,19 +3126,19 @@
         <v>86</v>
       </c>
       <c r="C77">
-        <v>12.94</v>
+        <v>12.91</v>
       </c>
       <c r="D77">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>16.3</v>
+        <v>12.74</v>
       </c>
       <c r="H77">
-        <v>-46.62</v>
+        <v>-49.68</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3123,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3134,19 +3158,19 @@
         <v>87</v>
       </c>
       <c r="C78">
-        <v>12.92</v>
+        <v>12.9</v>
       </c>
       <c r="D78">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>16.03</v>
+        <v>12.24</v>
       </c>
       <c r="H78">
-        <v>-46.85</v>
+        <v>-50.41</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3155,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3166,28 +3190,28 @@
         <v>88</v>
       </c>
       <c r="C79">
-        <v>12.89</v>
+        <v>12.87</v>
       </c>
       <c r="D79">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>16.41</v>
+        <v>11.71</v>
       </c>
       <c r="H79">
-        <v>-46.57</v>
+        <v>-50.94</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3198,28 +3222,28 @@
         <v>89</v>
       </c>
       <c r="C80">
-        <v>12.87</v>
+        <v>12.84</v>
       </c>
       <c r="D80">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>16.12</v>
+        <v>11.27</v>
       </c>
       <c r="H80">
-        <v>-46.65</v>
+        <v>-51.02</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J80">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L80" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3230,28 +3254,28 @@
         <v>90</v>
       </c>
       <c r="C81">
-        <v>12.88</v>
+        <v>12.95</v>
       </c>
       <c r="D81">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>16.56</v>
+        <v>11.14</v>
       </c>
       <c r="H81">
-        <v>-46.27</v>
+        <v>-51.21</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J81">
-        <v>9.92</v>
+        <v>14.73</v>
       </c>
       <c r="L81" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3262,28 +3286,28 @@
         <v>91</v>
       </c>
       <c r="C82">
-        <v>13.57</v>
+        <v>13.55</v>
       </c>
       <c r="D82">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>17.37</v>
+        <v>12.33</v>
       </c>
       <c r="H82">
-        <v>-45.41</v>
+        <v>-50.29</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J82">
-        <v>117.02</v>
+        <v>47.59</v>
       </c>
       <c r="L82" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3294,28 +3318,284 @@
         <v>92</v>
       </c>
       <c r="C83">
-        <v>13.66</v>
+        <v>13.65</v>
       </c>
       <c r="D83">
+        <v>0.42</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>16.63</v>
+      </c>
+      <c r="H83">
+        <v>-46.86</v>
+      </c>
+      <c r="I83">
+        <v>-0.02</v>
+      </c>
+      <c r="J83">
+        <v>505.14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84">
+        <v>13.68</v>
+      </c>
+      <c r="D84">
+        <v>0.47</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>20.04</v>
+      </c>
+      <c r="H84">
+        <v>-43.9</v>
+      </c>
+      <c r="I84">
+        <v>-0.02</v>
+      </c>
+      <c r="J84">
+        <v>739.76</v>
+      </c>
+      <c r="L84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85">
+        <v>13.7</v>
+      </c>
+      <c r="D85">
+        <v>0.51</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>22.39</v>
+      </c>
+      <c r="H85">
+        <v>-41.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>889.09</v>
+      </c>
+      <c r="L85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86">
+        <v>13.71</v>
+      </c>
+      <c r="D86">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>23.57</v>
+      </c>
+      <c r="H86">
+        <v>-40.03</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>910.92</v>
+      </c>
+      <c r="L86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>13.71</v>
+      </c>
+      <c r="D87">
+        <v>0.55</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>22.8</v>
+      </c>
+      <c r="H87">
+        <v>-40.66</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>871.62</v>
+      </c>
+      <c r="L87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88">
+        <v>13.72</v>
+      </c>
+      <c r="D88">
+        <v>0.53</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>23.05</v>
+      </c>
+      <c r="H88">
+        <v>-40.87</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>750.9299999999999</v>
+      </c>
+      <c r="L88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89">
+        <v>13.73</v>
+      </c>
+      <c r="D89">
+        <v>0.52</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>22.75</v>
+      </c>
+      <c r="H89">
+        <v>-41.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>608.98</v>
+      </c>
+      <c r="L89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90">
+        <v>13.72</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>22.4</v>
+      </c>
+      <c r="H90">
+        <v>-41.8</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>427.95</v>
+      </c>
+      <c r="L90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>13.53</v>
+      </c>
+      <c r="D91">
         <v>0.48</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>19.1</v>
-      </c>
-      <c r="H83">
-        <v>-44.32</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>324.05</v>
-      </c>
-      <c r="L83" t="s">
-        <v>93</v>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>20.85</v>
+      </c>
+      <c r="H91">
+        <v>-43.16</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>114.81</v>
+      </c>
+      <c r="L91" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
   <si>
     <t>Fecha</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>11/13/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/13/2020 6:00:00 PM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -677,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -811,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -907,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -939,7 +942,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -971,7 +974,7 @@
         <v>13.24</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1003,7 +1006,7 @@
         <v>44.55</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1035,7 +1038,7 @@
         <v>521.08</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1067,7 +1070,7 @@
         <v>759.74</v>
       </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1099,7 +1102,7 @@
         <v>916.97</v>
       </c>
       <c r="L13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1131,7 +1134,7 @@
         <v>966.02</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1163,7 +1166,7 @@
         <v>919.92</v>
       </c>
       <c r="L15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1195,7 +1198,7 @@
         <v>758.29</v>
       </c>
       <c r="L16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1227,7 +1230,7 @@
         <v>613.15</v>
       </c>
       <c r="L17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1259,7 +1262,7 @@
         <v>273.35</v>
       </c>
       <c r="L18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1291,7 +1294,7 @@
         <v>111.49</v>
       </c>
       <c r="L19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1323,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1419,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1515,7 +1518,7 @@
         <v>0.03</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1547,7 +1550,7 @@
         <v>0.03</v>
       </c>
       <c r="L27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1579,7 +1582,7 @@
         <v>0.09</v>
       </c>
       <c r="L28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1611,7 +1614,7 @@
         <v>0.15</v>
       </c>
       <c r="L29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1643,7 +1646,7 @@
         <v>0.04</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1675,7 +1678,7 @@
         <v>0.01</v>
       </c>
       <c r="L31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,7 +1710,7 @@
         <v>0.1</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1739,7 +1742,7 @@
         <v>15.31</v>
       </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1771,7 +1774,7 @@
         <v>49.79</v>
       </c>
       <c r="L34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1803,7 +1806,7 @@
         <v>502.9</v>
       </c>
       <c r="L35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1835,7 +1838,7 @@
         <v>597.84</v>
       </c>
       <c r="L36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1867,7 +1870,7 @@
         <v>686.8099999999999</v>
       </c>
       <c r="L37" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1899,7 +1902,7 @@
         <v>673</v>
       </c>
       <c r="L38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1931,7 +1934,7 @@
         <v>359.07</v>
       </c>
       <c r="L39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1963,7 +1966,7 @@
         <v>330.07</v>
       </c>
       <c r="L40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1995,7 +1998,7 @@
         <v>597.52</v>
       </c>
       <c r="L41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2027,7 +2030,7 @@
         <v>163.23</v>
       </c>
       <c r="L42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2059,7 +2062,7 @@
         <v>51.68</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2091,7 +2094,7 @@
         <v>7.37</v>
       </c>
       <c r="L44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2155,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2187,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2219,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2251,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2315,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2347,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2379,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2443,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2475,7 +2478,7 @@
         <v>0.01</v>
       </c>
       <c r="L56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2507,7 +2510,7 @@
         <v>12.17</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2539,7 +2542,7 @@
         <v>46.64</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2571,7 +2574,7 @@
         <v>512.77</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2603,7 +2606,7 @@
         <v>740.3099999999999</v>
       </c>
       <c r="L60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2635,7 +2638,7 @@
         <v>887.41</v>
       </c>
       <c r="L61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2667,7 +2670,7 @@
         <v>898.12</v>
       </c>
       <c r="L62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2699,7 +2702,7 @@
         <v>870.48</v>
       </c>
       <c r="L63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2731,7 +2734,7 @@
         <v>791.96</v>
       </c>
       <c r="L64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2763,7 +2766,7 @@
         <v>649.84</v>
       </c>
       <c r="L65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2795,7 +2798,7 @@
         <v>433.54</v>
       </c>
       <c r="L66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2827,7 +2830,7 @@
         <v>162.64</v>
       </c>
       <c r="L67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2859,7 +2862,7 @@
         <v>8.18</v>
       </c>
       <c r="L68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2891,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2923,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2955,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2987,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3019,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3115,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3147,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3179,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3211,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3243,7 +3246,7 @@
         <v>0.02</v>
       </c>
       <c r="L80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3275,7 +3278,7 @@
         <v>14.73</v>
       </c>
       <c r="L81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3307,7 +3310,7 @@
         <v>47.59</v>
       </c>
       <c r="L82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3339,7 +3342,7 @@
         <v>505.14</v>
       </c>
       <c r="L83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3371,7 +3374,7 @@
         <v>739.76</v>
       </c>
       <c r="L84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3403,7 +3406,7 @@
         <v>889.09</v>
       </c>
       <c r="L85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3435,7 +3438,7 @@
         <v>910.92</v>
       </c>
       <c r="L86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3467,7 +3470,7 @@
         <v>871.62</v>
       </c>
       <c r="L87" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3499,7 +3502,7 @@
         <v>750.9299999999999</v>
       </c>
       <c r="L88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3531,7 +3534,7 @@
         <v>608.98</v>
       </c>
       <c r="L89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3563,7 +3566,7 @@
         <v>427.95</v>
       </c>
       <c r="L90" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3595,7 +3598,39 @@
         <v>114.81</v>
       </c>
       <c r="L91" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>101</v>
+      </c>
+      <c r="C92">
+        <v>13.11</v>
+      </c>
+      <c r="D92">
+        <v>0.45</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>19.04</v>
+      </c>
+      <c r="H92">
+        <v>-44.82</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>4.15</v>
+      </c>
+      <c r="L92" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -49,277 +49,223 @@
     <t>Estación</t>
   </si>
   <si>
-    <t>11/10/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/10/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/10/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/11/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/11/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/12/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 6:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 7:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 8:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 9:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 10:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/12/2020 11:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 7:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 8:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 9:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 10:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 11:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/13/2020 12:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 1:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 2:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 3:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 4:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 5:00:00 PM</t>
-  </si>
-  <si>
-    <t>11/13/2020 6:00:00 PM</t>
+    <t>11/14/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/14/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/14/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/15/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/15/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/16/2020 12:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 1:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 2:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 3:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 4:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 5:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 6:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 7:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 8:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 9:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/16/2020 11:00:00 PM</t>
+  </si>
+  <si>
+    <t>11/17/2020 12:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -680,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,19 +675,19 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>13.02</v>
+        <v>12.98</v>
       </c>
       <c r="D2">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.71</v>
+        <v>14.51</v>
       </c>
       <c r="H2">
-        <v>-46.3</v>
+        <v>-48.15</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -750,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -761,19 +707,19 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>13.01</v>
+        <v>12.96</v>
       </c>
       <c r="D3">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.39</v>
+        <v>14.18</v>
       </c>
       <c r="H3">
-        <v>-46.53</v>
+        <v>-48.12</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -782,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -793,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>12.98</v>
+        <v>12.93</v>
       </c>
       <c r="D4">
         <v>0.42</v>
@@ -802,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.92</v>
+        <v>13.81</v>
       </c>
       <c r="H4">
-        <v>-46.77</v>
+        <v>-48.33</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -814,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -825,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>12.97</v>
+        <v>12.91</v>
       </c>
       <c r="D5">
         <v>0.42</v>
@@ -834,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.01</v>
+        <v>13.42</v>
       </c>
       <c r="H5">
-        <v>-47.39</v>
+        <v>-48.63</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -846,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -857,19 +803,19 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>12.94</v>
+        <v>12.89</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.07</v>
+        <v>13.18</v>
       </c>
       <c r="H6">
-        <v>-48.27</v>
+        <v>-48.98</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -878,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -889,19 +835,19 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12.92</v>
+        <v>12.87</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.09</v>
+        <v>12.72</v>
       </c>
       <c r="H7">
-        <v>-48.9</v>
+        <v>-48.96</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -910,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -921,19 +867,19 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>12.89</v>
+        <v>12.84</v>
       </c>
       <c r="D8">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>13.28</v>
+        <v>12.3</v>
       </c>
       <c r="H8">
-        <v>-49.55</v>
+        <v>-49.42</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -942,7 +888,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -953,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>12.93</v>
+        <v>12.9</v>
       </c>
       <c r="D9">
         <v>0.38</v>
@@ -962,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>12.84</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>-49.99</v>
+        <v>-49.86</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.24</v>
+        <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -985,28 +931,28 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>13.48</v>
+        <v>13.53</v>
       </c>
       <c r="D10">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>13.78</v>
+        <v>13.67</v>
       </c>
       <c r="H10">
-        <v>-49.16</v>
+        <v>-49.33</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>44.55</v>
+        <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1020,25 +966,25 @@
         <v>13.65</v>
       </c>
       <c r="D11">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.44</v>
+        <v>17.56</v>
       </c>
       <c r="H11">
-        <v>-45.98</v>
+        <v>-46.24</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>521.08</v>
+        <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1052,25 +998,25 @@
         <v>13.68</v>
       </c>
       <c r="D12">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.32</v>
+        <v>20.56</v>
       </c>
       <c r="H12">
-        <v>-43.6</v>
+        <v>-42.76</v>
       </c>
       <c r="I12">
         <v>-0.01</v>
       </c>
       <c r="J12">
-        <v>759.74</v>
+        <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1084,25 +1030,25 @@
         <v>13.7</v>
       </c>
       <c r="D13">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.95</v>
+        <v>22.49</v>
       </c>
       <c r="H13">
-        <v>-41.47</v>
+        <v>-41.61</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J13">
-        <v>916.97</v>
+        <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1116,25 +1062,25 @@
         <v>13.71</v>
       </c>
       <c r="D14">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.08</v>
+        <v>22.91</v>
       </c>
       <c r="H14">
-        <v>-40.79</v>
+        <v>-40.75</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>966.02</v>
+        <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1148,25 +1094,25 @@
         <v>13.71</v>
       </c>
       <c r="D15">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.86</v>
+        <v>22.58</v>
       </c>
       <c r="H15">
-        <v>-41.32</v>
+        <v>-40.96</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>919.92</v>
+        <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1180,25 +1126,25 @@
         <v>13.72</v>
       </c>
       <c r="D16">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.22</v>
+        <v>22.54</v>
       </c>
       <c r="H16">
-        <v>-41.49</v>
+        <v>-41.19</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J16">
-        <v>758.29</v>
+        <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1212,25 +1158,25 @@
         <v>13.73</v>
       </c>
       <c r="D17">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="H17">
-        <v>-41.47</v>
+        <v>-41.27</v>
       </c>
       <c r="I17">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="J17">
-        <v>613.15</v>
+        <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1241,28 +1187,28 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>13.72</v>
+        <v>13.71</v>
       </c>
       <c r="D18">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>20.05</v>
       </c>
       <c r="H18">
-        <v>-43.04</v>
+        <v>-42.35</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>273.35</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1273,28 +1219,28 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>13.67</v>
+        <v>13.38</v>
       </c>
       <c r="D19">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.98</v>
+        <v>18.78</v>
       </c>
       <c r="H19">
-        <v>-44.02</v>
+        <v>-44.42</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J19">
-        <v>111.49</v>
+        <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1308,25 +1254,25 @@
         <v>13.13</v>
       </c>
       <c r="D20">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>18.63</v>
+        <v>18.18</v>
       </c>
       <c r="H20">
-        <v>-45.57</v>
+        <v>-45.21</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J20">
-        <v>6</v>
+        <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1337,28 +1283,28 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>13.07</v>
+        <v>13.06</v>
       </c>
       <c r="D21">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.9</v>
+        <v>18.15</v>
       </c>
       <c r="H21">
-        <v>-46.21</v>
+        <v>-45.48</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1372,16 +1318,16 @@
         <v>13.04</v>
       </c>
       <c r="D22">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.22</v>
+        <v>17.9</v>
       </c>
       <c r="H22">
-        <v>-46.72</v>
+        <v>-45.6</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1390,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1401,19 +1347,19 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>13.02</v>
+        <v>13.03</v>
       </c>
       <c r="D23">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.46</v>
+        <v>16.85</v>
       </c>
       <c r="H23">
-        <v>-46.52</v>
+        <v>-45.35</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1422,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1436,16 +1382,16 @@
         <v>13.01</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>17.46</v>
+        <v>16.09</v>
       </c>
       <c r="H24">
-        <v>-46.52</v>
+        <v>-46.53</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1454,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1468,16 +1414,16 @@
         <v>13</v>
       </c>
       <c r="D25">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.36</v>
+        <v>16.13</v>
       </c>
       <c r="H25">
-        <v>-46.77</v>
+        <v>-47.03</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1486,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1500,25 +1446,25 @@
         <v>13</v>
       </c>
       <c r="D26">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>17.34</v>
+        <v>15.48</v>
       </c>
       <c r="H26">
-        <v>-46.82</v>
+        <v>-46.94</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1529,28 +1475,28 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>12.99</v>
+        <v>12.98</v>
       </c>
       <c r="D27">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="E27">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>17.1</v>
+        <v>14.57</v>
       </c>
       <c r="H27">
-        <v>-46.97</v>
+        <v>-47.05</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1561,28 +1507,28 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>12.97</v>
+        <v>12.96</v>
       </c>
       <c r="D28">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>16.92</v>
+        <v>14.06</v>
       </c>
       <c r="H28">
-        <v>-47.06</v>
+        <v>-46.64</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1593,28 +1539,28 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>12.95</v>
+        <v>12.93</v>
       </c>
       <c r="D29">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>16.1</v>
+        <v>14.03</v>
       </c>
       <c r="H29">
-        <v>-47.45</v>
+        <v>-48.13</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1625,28 +1571,28 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>12.92</v>
+        <v>12.91</v>
       </c>
       <c r="D30">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>15.5</v>
+        <v>13.82</v>
       </c>
       <c r="H30">
-        <v>-47.49</v>
+        <v>-48.27</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1657,28 +1603,28 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D31">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="E31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>15.43</v>
+        <v>13.51</v>
       </c>
       <c r="H31">
-        <v>-47.62</v>
+        <v>-48.69</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1692,25 +1638,25 @@
         <v>12.87</v>
       </c>
       <c r="D32">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>14.54</v>
+        <v>13.16</v>
       </c>
       <c r="H32">
-        <v>-47.54</v>
+        <v>-48.46</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1721,28 +1667,28 @@
         <v>42</v>
       </c>
       <c r="C33">
-        <v>12.96</v>
+        <v>12.99</v>
       </c>
       <c r="D33">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>14.02</v>
+        <v>12.94</v>
       </c>
       <c r="H33">
-        <v>-48.36</v>
+        <v>-48.73</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>15.31</v>
+        <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1753,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>13.51</v>
+        <v>13.61</v>
       </c>
       <c r="D34">
         <v>0.41</v>
@@ -1762,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>14.51</v>
+        <v>14.08</v>
       </c>
       <c r="H34">
-        <v>-48.1</v>
+        <v>-48.54</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>49.79</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1785,10 +1731,10 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D35">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1797,16 +1743,16 @@
         <v>17.63</v>
       </c>
       <c r="H35">
-        <v>-45.5</v>
+        <v>-46.11</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>502.9</v>
+        <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1820,25 +1766,25 @@
         <v>13.68</v>
       </c>
       <c r="D36">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>19.66</v>
+        <v>20.65</v>
       </c>
       <c r="H36">
-        <v>-44.06</v>
+        <v>-43.01</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>597.84</v>
+        <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1849,28 +1795,28 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>13.69</v>
+        <v>13.7</v>
       </c>
       <c r="D37">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>20.39</v>
+        <v>22.5</v>
       </c>
       <c r="H37">
-        <v>-43.37</v>
+        <v>-40.98</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>686.8099999999999</v>
+        <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1881,28 +1827,28 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D38">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>20.28</v>
+        <v>22.85</v>
       </c>
       <c r="H38">
-        <v>-43.56</v>
+        <v>-40.57</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>673</v>
+        <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1913,28 +1859,28 @@
         <v>48</v>
       </c>
       <c r="C39">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D39">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19.97</v>
+        <v>22.58</v>
       </c>
       <c r="H39">
-        <v>-43.88</v>
+        <v>-40.96</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J39">
-        <v>359.07</v>
+        <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1945,28 +1891,28 @@
         <v>49</v>
       </c>
       <c r="C40">
-        <v>13.7</v>
+        <v>13.72</v>
       </c>
       <c r="D40">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>20.45</v>
+        <v>22.77</v>
       </c>
       <c r="H40">
-        <v>-43.54</v>
+        <v>-40.99</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>330.07</v>
+        <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1977,28 +1923,28 @@
         <v>50</v>
       </c>
       <c r="C41">
-        <v>13.71</v>
+        <v>13.72</v>
       </c>
       <c r="D41">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>21.8</v>
+        <v>22.07</v>
       </c>
       <c r="H41">
-        <v>-42.06</v>
+        <v>-41.98</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>597.52</v>
+        <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2009,28 +1955,28 @@
         <v>51</v>
       </c>
       <c r="C42">
-        <v>13.71</v>
+        <v>13.72</v>
       </c>
       <c r="D42">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>20.37</v>
+        <v>21.61</v>
       </c>
       <c r="H42">
-        <v>-43.32</v>
+        <v>-42.63</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>163.23</v>
+        <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2041,28 +1987,28 @@
         <v>52</v>
       </c>
       <c r="C43">
-        <v>13.69</v>
+        <v>13.71</v>
       </c>
       <c r="D43">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>19.4</v>
+        <v>20.43</v>
       </c>
       <c r="H43">
-        <v>-44.16</v>
+        <v>-43.84</v>
       </c>
       <c r="I43">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>51.68</v>
+        <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2073,28 +2019,28 @@
         <v>53</v>
       </c>
       <c r="C44">
-        <v>13.21</v>
+        <v>13.19</v>
       </c>
       <c r="D44">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>18.8</v>
+        <v>19.22</v>
       </c>
       <c r="H44">
-        <v>-45.22</v>
+        <v>-45.02</v>
       </c>
       <c r="I44">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>7.37</v>
+        <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2108,25 +2054,25 @@
         <v>13.07</v>
       </c>
       <c r="D45">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.51</v>
+        <v>18.52</v>
       </c>
       <c r="H45">
-        <v>-45.4</v>
+        <v>-45.6</v>
       </c>
       <c r="I45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2140,16 +2086,16 @@
         <v>13.05</v>
       </c>
       <c r="D46">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>18.23</v>
+        <v>17.85</v>
       </c>
       <c r="H46">
-        <v>-45.67</v>
+        <v>-45.98</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2158,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2169,28 +2115,28 @@
         <v>56</v>
       </c>
       <c r="C47">
-        <v>13.04</v>
+        <v>13.03</v>
       </c>
       <c r="D47">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>17.95</v>
+        <v>17.06</v>
       </c>
       <c r="H47">
-        <v>-46.1</v>
+        <v>-46.62</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2201,19 +2147,19 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>13.03</v>
+        <v>13.01</v>
       </c>
       <c r="D48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>18.04</v>
+        <v>16.3</v>
       </c>
       <c r="H48">
-        <v>-45.98</v>
+        <v>-47.22</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2222,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2233,19 +2179,19 @@
         <v>58</v>
       </c>
       <c r="C49">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>18.11</v>
+        <v>15.47</v>
       </c>
       <c r="H49">
-        <v>-45.86</v>
+        <v>-47.72</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2254,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2265,19 +2211,19 @@
         <v>59</v>
       </c>
       <c r="C50">
-        <v>13.02</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>17.85</v>
+        <v>14.49</v>
       </c>
       <c r="H50">
-        <v>-45.98</v>
+        <v>-48.39</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2286,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2297,19 +2243,19 @@
         <v>60</v>
       </c>
       <c r="C51">
-        <v>13.01</v>
+        <v>12.98</v>
       </c>
       <c r="D51">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>17.08</v>
+        <v>14</v>
       </c>
       <c r="H51">
-        <v>-46.62</v>
+        <v>-48.92</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2318,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2329,28 +2275,28 @@
         <v>61</v>
       </c>
       <c r="C52">
-        <v>12.98</v>
+        <v>12.95</v>
       </c>
       <c r="D52">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>16.15</v>
+        <v>13.54</v>
       </c>
       <c r="H52">
-        <v>-47.26</v>
+        <v>-49.11</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2361,28 +2307,28 @@
         <v>62</v>
       </c>
       <c r="C53">
-        <v>12.95</v>
+        <v>12.93</v>
       </c>
       <c r="D53">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.3</v>
+        <v>13.52</v>
       </c>
       <c r="H53">
-        <v>-47.96</v>
+        <v>-49.12</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2393,19 +2339,19 @@
         <v>63</v>
       </c>
       <c r="C54">
-        <v>12.92</v>
+        <v>12.91</v>
       </c>
       <c r="D54">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>14.13</v>
+        <v>13.73</v>
       </c>
       <c r="H54">
-        <v>-48.55</v>
+        <v>-49.04</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2414,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2428,16 +2374,16 @@
         <v>12.89</v>
       </c>
       <c r="D55">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>13.2</v>
+        <v>13.87</v>
       </c>
       <c r="H55">
-        <v>-49.64</v>
+        <v>-49.09</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2446,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2460,25 +2406,25 @@
         <v>12.86</v>
       </c>
       <c r="D56">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>12.49</v>
+        <v>14.12</v>
       </c>
       <c r="H56">
-        <v>-50.3</v>
+        <v>-48.96</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2489,28 +2435,28 @@
         <v>66</v>
       </c>
       <c r="C57">
-        <v>12.9</v>
+        <v>13.09</v>
       </c>
       <c r="D57">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>12.35</v>
+        <v>17.69</v>
       </c>
       <c r="H57">
-        <v>-50.5</v>
+        <v>-46.29</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J57">
-        <v>12.17</v>
+        <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2521,28 +2467,28 @@
         <v>67</v>
       </c>
       <c r="C58">
-        <v>13.46</v>
+        <v>13.61</v>
       </c>
       <c r="D58">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>13.25</v>
+        <v>18.13</v>
       </c>
       <c r="H58">
-        <v>-49.7</v>
+        <v>-46.02</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J58">
-        <v>46.64</v>
+        <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2553,28 +2499,28 @@
         <v>68</v>
       </c>
       <c r="C59">
-        <v>13.65</v>
+        <v>13.66</v>
       </c>
       <c r="D59">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>17.06</v>
+        <v>21.07</v>
       </c>
       <c r="H59">
-        <v>-46.56</v>
+        <v>-43.08</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>512.77</v>
+        <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2585,28 +2531,28 @@
         <v>69</v>
       </c>
       <c r="C60">
-        <v>13.68</v>
+        <v>13.69</v>
       </c>
       <c r="D60">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>20.26</v>
+        <v>23.21</v>
       </c>
       <c r="H60">
-        <v>-43.73</v>
+        <v>-40.73</v>
       </c>
       <c r="I60">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>740.3099999999999</v>
+        <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2620,25 +2566,25 @@
         <v>13.7</v>
       </c>
       <c r="D61">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>22.33</v>
+        <v>24.62</v>
       </c>
       <c r="H61">
-        <v>-41.32</v>
+        <v>-38.34</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>887.41</v>
+        <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2652,25 +2598,25 @@
         <v>13.71</v>
       </c>
       <c r="D62">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>22.73</v>
+        <v>25.32</v>
       </c>
       <c r="H62">
-        <v>-40.89</v>
+        <v>-38.56</v>
       </c>
       <c r="I62">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>898.12</v>
+        <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2681,28 +2627,28 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>13.72</v>
+        <v>13.73</v>
       </c>
       <c r="D63">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F63">
-        <v>22.53</v>
+        <v>25.61</v>
       </c>
       <c r="H63">
-        <v>-40.86</v>
+        <v>-38.5</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>870.48</v>
+        <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2713,28 +2659,28 @@
         <v>73</v>
       </c>
       <c r="C64">
-        <v>13.73</v>
+        <v>13.74</v>
       </c>
       <c r="D64">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>23.08</v>
+        <v>26.13</v>
       </c>
       <c r="H64">
-        <v>-40.57</v>
+        <v>-37.92</v>
       </c>
       <c r="I64">
         <v>0.01</v>
       </c>
       <c r="J64">
-        <v>791.96</v>
+        <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2745,28 +2691,28 @@
         <v>74</v>
       </c>
       <c r="C65">
-        <v>13.73</v>
+        <v>13.74</v>
       </c>
       <c r="D65">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>23.43</v>
+        <v>25.02</v>
       </c>
       <c r="H65">
-        <v>-40.16</v>
+        <v>-39.07</v>
       </c>
       <c r="I65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>649.84</v>
+        <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2780,25 +2726,25 @@
         <v>13.73</v>
       </c>
       <c r="D66">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>22.79</v>
+        <v>25.09</v>
       </c>
       <c r="H66">
-        <v>-41.24</v>
+        <v>-39.18</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>433.54</v>
+        <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2809,28 +2755,28 @@
         <v>76</v>
       </c>
       <c r="C67">
-        <v>13.71</v>
+        <v>13.73</v>
       </c>
       <c r="D67">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>21.24</v>
+        <v>24.23</v>
       </c>
       <c r="H67">
-        <v>-42.83</v>
+        <v>-40.05</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>162.64</v>
+        <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2841,28 +2787,28 @@
         <v>77</v>
       </c>
       <c r="C68">
-        <v>13.2</v>
+        <v>13.28</v>
       </c>
       <c r="D68">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>19.31</v>
+        <v>22.33</v>
       </c>
       <c r="H68">
-        <v>-44.89</v>
+        <v>-41.8</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>8.18</v>
+        <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2873,19 +2819,19 @@
         <v>78</v>
       </c>
       <c r="C69">
-        <v>13.07</v>
+        <v>13.08</v>
       </c>
       <c r="D69">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>18.52</v>
+        <v>21.54</v>
       </c>
       <c r="H69">
-        <v>-45.71</v>
+        <v>-42.54</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -2894,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2905,19 +2851,19 @@
         <v>79</v>
       </c>
       <c r="C70">
-        <v>13.05</v>
+        <v>13.06</v>
       </c>
       <c r="D70">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>17.54</v>
+        <v>21.35</v>
       </c>
       <c r="H70">
-        <v>-46.3</v>
+        <v>-42.86</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -2926,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2937,19 +2883,19 @@
         <v>80</v>
       </c>
       <c r="C71">
-        <v>13.03</v>
+        <v>13.04</v>
       </c>
       <c r="D71">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>16.51</v>
+        <v>20.66</v>
       </c>
       <c r="H71">
-        <v>-47.04</v>
+        <v>-43.53</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -2958,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2969,19 +2915,19 @@
         <v>81</v>
       </c>
       <c r="C72">
-        <v>13.01</v>
+        <v>13.02</v>
       </c>
       <c r="D72">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>19.89</v>
       </c>
       <c r="H72">
-        <v>-47.26</v>
+        <v>-44.18</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -2990,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3001,19 +2947,19 @@
         <v>82</v>
       </c>
       <c r="C73">
-        <v>12.99</v>
+        <v>13.01</v>
       </c>
       <c r="D73">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>15.11</v>
+        <v>19.29</v>
       </c>
       <c r="H73">
-        <v>-47.6</v>
+        <v>-44.74</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3022,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3032,9 +2978,6 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74">
-        <v>12.98</v>
-      </c>
       <c r="D74">
         <v>0.42</v>
       </c>
@@ -3042,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>14.16</v>
+        <v>17.53</v>
       </c>
       <c r="H74">
-        <v>-48.24</v>
+        <v>-45.96</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3054,583 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75">
-        <v>12.97</v>
-      </c>
-      <c r="D75">
-        <v>0.41</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>13.6</v>
-      </c>
-      <c r="H75">
-        <v>-48.65</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76">
-        <v>12.94</v>
-      </c>
-      <c r="D76">
-        <v>0.4</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>13.03</v>
-      </c>
-      <c r="H76">
-        <v>-49.18</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77">
-        <v>12.91</v>
-      </c>
-      <c r="D77">
-        <v>0.38</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>12.74</v>
-      </c>
-      <c r="H77">
-        <v>-49.68</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78">
-        <v>12.9</v>
-      </c>
-      <c r="D78">
-        <v>0.37</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>12.24</v>
-      </c>
-      <c r="H78">
-        <v>-50.41</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79">
-        <v>12.87</v>
-      </c>
-      <c r="D79">
-        <v>0.36</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>11.71</v>
-      </c>
-      <c r="H79">
-        <v>-50.94</v>
-      </c>
-      <c r="I79">
-        <v>0.01</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="L79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80">
-        <v>12.84</v>
-      </c>
-      <c r="D80">
-        <v>0.36</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>11.27</v>
-      </c>
-      <c r="H80">
-        <v>-51.02</v>
-      </c>
-      <c r="I80">
-        <v>0.01</v>
-      </c>
-      <c r="J80">
-        <v>0.02</v>
-      </c>
-      <c r="L80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C81">
-        <v>12.95</v>
-      </c>
-      <c r="D81">
-        <v>0.35</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>11.14</v>
-      </c>
-      <c r="H81">
-        <v>-51.21</v>
-      </c>
-      <c r="I81">
-        <v>0.01</v>
-      </c>
-      <c r="J81">
-        <v>14.73</v>
-      </c>
-      <c r="L81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82">
-        <v>13.55</v>
-      </c>
-      <c r="D82">
-        <v>0.37</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>12.33</v>
-      </c>
-      <c r="H82">
-        <v>-50.29</v>
-      </c>
-      <c r="I82">
-        <v>0.01</v>
-      </c>
-      <c r="J82">
-        <v>47.59</v>
-      </c>
-      <c r="L82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83">
-        <v>13.65</v>
-      </c>
-      <c r="D83">
-        <v>0.42</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>16.63</v>
-      </c>
-      <c r="H83">
-        <v>-46.86</v>
-      </c>
-      <c r="I83">
-        <v>-0.02</v>
-      </c>
-      <c r="J83">
-        <v>505.14</v>
-      </c>
-      <c r="L83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84">
-        <v>13.68</v>
-      </c>
-      <c r="D84">
-        <v>0.47</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>20.04</v>
-      </c>
-      <c r="H84">
-        <v>-43.9</v>
-      </c>
-      <c r="I84">
-        <v>-0.02</v>
-      </c>
-      <c r="J84">
-        <v>739.76</v>
-      </c>
-      <c r="L84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85">
-        <v>13.7</v>
-      </c>
-      <c r="D85">
-        <v>0.51</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>22.39</v>
-      </c>
-      <c r="H85">
-        <v>-41.5</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>889.09</v>
-      </c>
-      <c r="L85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86">
-        <v>13.71</v>
-      </c>
-      <c r="D86">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>23.57</v>
-      </c>
-      <c r="H86">
-        <v>-40.03</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>910.92</v>
-      </c>
-      <c r="L86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87">
-        <v>13.71</v>
-      </c>
-      <c r="D87">
-        <v>0.55</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>22.8</v>
-      </c>
-      <c r="H87">
-        <v>-40.66</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>871.62</v>
-      </c>
-      <c r="L87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88">
-        <v>13.72</v>
-      </c>
-      <c r="D88">
-        <v>0.53</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>23.05</v>
-      </c>
-      <c r="H88">
-        <v>-40.87</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>750.9299999999999</v>
-      </c>
-      <c r="L88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89">
-        <v>13.73</v>
-      </c>
-      <c r="D89">
-        <v>0.52</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>22.75</v>
-      </c>
-      <c r="H89">
-        <v>-41.3</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>608.98</v>
-      </c>
-      <c r="L89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90">
-        <v>13.72</v>
-      </c>
-      <c r="D90">
-        <v>0.5</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>22.4</v>
-      </c>
-      <c r="H90">
-        <v>-41.8</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>427.95</v>
-      </c>
-      <c r="L90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91">
-        <v>13.53</v>
-      </c>
-      <c r="D91">
-        <v>0.48</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>20.85</v>
-      </c>
-      <c r="H91">
-        <v>-43.16</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>114.81</v>
-      </c>
-      <c r="L91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92">
-        <v>13.11</v>
-      </c>
-      <c r="D92">
-        <v>0.45</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>19.04</v>
-      </c>
-      <c r="H92">
-        <v>-44.82</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>4.15</v>
-      </c>
-      <c r="L92" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>11/17/2020 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 1:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 2:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -626,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -728,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -760,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -792,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -888,7 +894,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -920,7 +926,7 @@
         <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -952,7 +958,7 @@
         <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -984,7 +990,7 @@
         <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1016,7 +1022,7 @@
         <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,7 +1054,7 @@
         <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1080,7 +1086,7 @@
         <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1112,7 +1118,7 @@
         <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1144,7 +1150,7 @@
         <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1176,7 +1182,7 @@
         <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1208,7 +1214,7 @@
         <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1240,7 +1246,7 @@
         <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1272,7 +1278,7 @@
         <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1304,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1336,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1368,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1464,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1496,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1528,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1592,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1624,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1656,7 +1662,7 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1688,7 +1694,7 @@
         <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1720,7 +1726,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1752,7 +1758,7 @@
         <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1784,7 +1790,7 @@
         <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1816,7 +1822,7 @@
         <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1848,7 +1854,7 @@
         <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1880,7 +1886,7 @@
         <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1912,7 +1918,7 @@
         <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,7 +1950,7 @@
         <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1976,7 +1982,7 @@
         <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2008,7 +2014,7 @@
         <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2040,7 +2046,7 @@
         <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2072,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2104,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2136,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2168,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2200,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2232,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2264,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2296,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2328,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2360,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2456,7 +2462,7 @@
         <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2488,7 +2494,7 @@
         <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2520,7 +2526,7 @@
         <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2552,7 +2558,7 @@
         <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2584,7 +2590,7 @@
         <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2616,7 +2622,7 @@
         <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2648,7 +2654,7 @@
         <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2680,7 +2686,7 @@
         <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2712,7 +2718,7 @@
         <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2744,7 +2750,7 @@
         <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2776,7 +2782,7 @@
         <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2808,7 +2814,7 @@
         <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2872,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2904,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2936,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2968,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2978,6 +2984,9 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
+      <c r="C74">
+        <v>13.01</v>
+      </c>
       <c r="D74">
         <v>0.42</v>
       </c>
@@ -2997,7 +3006,68 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
+      </c>
+      <c r="C75">
+        <v>12.99</v>
+      </c>
+      <c r="D75">
+        <v>0.39</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>15.89</v>
+      </c>
+      <c r="H75">
+        <v>-47.39</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76">
+        <v>0.38</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>15.33</v>
+      </c>
+      <c r="H76">
+        <v>-47.91</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>11/17/2020 2:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 3:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -632,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -830,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -862,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -894,7 +897,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -926,7 +929,7 @@
         <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -958,7 +961,7 @@
         <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -990,7 +993,7 @@
         <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1022,7 +1025,7 @@
         <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1054,7 +1057,7 @@
         <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,7 +1089,7 @@
         <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1118,7 +1121,7 @@
         <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1150,7 +1153,7 @@
         <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1182,7 +1185,7 @@
         <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1214,7 +1217,7 @@
         <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1246,7 +1249,7 @@
         <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1278,7 +1281,7 @@
         <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1310,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1406,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1502,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1534,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1566,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1598,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1630,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1662,7 +1665,7 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1694,7 +1697,7 @@
         <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1726,7 +1729,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1758,7 +1761,7 @@
         <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1790,7 +1793,7 @@
         <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1822,7 +1825,7 @@
         <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1854,7 +1857,7 @@
         <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1886,7 +1889,7 @@
         <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1918,7 +1921,7 @@
         <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1950,7 +1953,7 @@
         <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1982,7 +1985,7 @@
         <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2014,7 +2017,7 @@
         <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2046,7 +2049,7 @@
         <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2110,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2142,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2174,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2206,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2238,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2270,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2334,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2398,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2430,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2462,7 +2465,7 @@
         <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2494,7 +2497,7 @@
         <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2526,7 +2529,7 @@
         <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2558,7 +2561,7 @@
         <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2590,7 +2593,7 @@
         <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2622,7 +2625,7 @@
         <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2654,7 +2657,7 @@
         <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2686,7 +2689,7 @@
         <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2718,7 +2721,7 @@
         <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2750,7 +2753,7 @@
         <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2782,7 +2785,7 @@
         <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2814,7 +2817,7 @@
         <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2878,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2910,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2942,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2974,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3006,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3048,6 +3051,9 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
+      <c r="C76">
+        <v>12.96</v>
+      </c>
       <c r="D76">
         <v>0.38</v>
       </c>
@@ -3067,7 +3073,39 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>86</v>
+      </c>
+      <c r="C77">
+        <v>12.94</v>
+      </c>
+      <c r="D77">
+        <v>0.39</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>15.22</v>
+      </c>
+      <c r="H77">
+        <v>-47.97</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>11/17/2020 3:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 4:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 5:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -769,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -897,7 +903,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -929,7 +935,7 @@
         <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -961,7 +967,7 @@
         <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -993,7 +999,7 @@
         <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1025,7 +1031,7 @@
         <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1057,7 +1063,7 @@
         <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1089,7 +1095,7 @@
         <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1121,7 +1127,7 @@
         <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1153,7 +1159,7 @@
         <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1185,7 +1191,7 @@
         <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1217,7 +1223,7 @@
         <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1249,7 +1255,7 @@
         <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1281,7 +1287,7 @@
         <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1345,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1473,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1505,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1601,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1633,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1665,7 +1671,7 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1697,7 +1703,7 @@
         <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1729,7 +1735,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1761,7 +1767,7 @@
         <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1793,7 +1799,7 @@
         <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1825,7 +1831,7 @@
         <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1857,7 +1863,7 @@
         <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1889,7 +1895,7 @@
         <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1921,7 +1927,7 @@
         <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1953,7 +1959,7 @@
         <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1985,7 +1991,7 @@
         <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2017,7 +2023,7 @@
         <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2049,7 +2055,7 @@
         <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2081,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2113,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2177,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2241,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2273,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2305,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2337,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2369,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2401,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2433,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2465,7 +2471,7 @@
         <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2497,7 +2503,7 @@
         <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2529,7 +2535,7 @@
         <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2561,7 +2567,7 @@
         <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2593,7 +2599,7 @@
         <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2625,7 +2631,7 @@
         <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2657,7 +2663,7 @@
         <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2689,7 +2695,7 @@
         <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2721,7 +2727,7 @@
         <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2753,7 +2759,7 @@
         <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2785,7 +2791,7 @@
         <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2817,7 +2823,7 @@
         <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2849,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2913,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2945,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3041,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3105,7 +3111,71 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
+      </c>
+      <c r="C78">
+        <v>12.92</v>
+      </c>
+      <c r="D78">
+        <v>0.4</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>14.55</v>
+      </c>
+      <c r="H78">
+        <v>-48.15</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79">
+        <v>12.89</v>
+      </c>
+      <c r="D79">
+        <v>0.39</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>13.92</v>
+      </c>
+      <c r="H79">
+        <v>-48.74</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>11/17/2020 5:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 6:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 7:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -743,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -775,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -903,7 +909,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -935,7 +941,7 @@
         <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -967,7 +973,7 @@
         <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -999,7 +1005,7 @@
         <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1031,7 +1037,7 @@
         <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1063,7 +1069,7 @@
         <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1095,7 +1101,7 @@
         <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1127,7 +1133,7 @@
         <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1159,7 +1165,7 @@
         <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1191,7 +1197,7 @@
         <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1223,7 +1229,7 @@
         <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1255,7 +1261,7 @@
         <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1287,7 +1293,7 @@
         <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1319,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1351,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1383,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1447,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1543,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1575,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1607,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1671,7 +1677,7 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1703,7 +1709,7 @@
         <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1735,7 +1741,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1767,7 +1773,7 @@
         <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1799,7 +1805,7 @@
         <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1831,7 +1837,7 @@
         <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1863,7 +1869,7 @@
         <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1895,7 +1901,7 @@
         <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1927,7 +1933,7 @@
         <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1959,7 +1965,7 @@
         <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1991,7 +1997,7 @@
         <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2023,7 +2029,7 @@
         <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2055,7 +2061,7 @@
         <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2119,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2151,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2183,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2215,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2247,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2279,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2311,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2343,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2375,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2407,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2439,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2471,7 +2477,7 @@
         <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2503,7 +2509,7 @@
         <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2535,7 +2541,7 @@
         <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2567,7 +2573,7 @@
         <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2599,7 +2605,7 @@
         <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2631,7 +2637,7 @@
         <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2663,7 +2669,7 @@
         <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2695,7 +2701,7 @@
         <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2727,7 +2733,7 @@
         <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2759,7 +2765,7 @@
         <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2791,7 +2797,7 @@
         <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2823,7 +2829,7 @@
         <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2855,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2919,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2951,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2983,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3047,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3079,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3111,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3143,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3175,7 +3181,71 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>89</v>
+      </c>
+      <c r="C80">
+        <v>12.87</v>
+      </c>
+      <c r="D80">
+        <v>0.38</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>13.75</v>
+      </c>
+      <c r="H80">
+        <v>-49.02</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81">
+        <v>12.94</v>
+      </c>
+      <c r="D81">
+        <v>0.39</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>15.2</v>
+      </c>
+      <c r="H81">
+        <v>-48.05</v>
+      </c>
+      <c r="I81">
+        <v>0.01</v>
+      </c>
+      <c r="J81">
+        <v>13.77</v>
+      </c>
+      <c r="L81" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
+++ b/tablas_insivumeh/SANTIAGO ATITLAN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>11/17/2020 7:00:00 AM</t>
+  </si>
+  <si>
+    <t>11/17/2020 8:00:00 AM</t>
   </si>
   <si>
     <t>SANTIAGO ATITLAN</t>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -749,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -781,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -845,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -909,7 +912,7 @@
         <v>0.05</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -941,7 +944,7 @@
         <v>13.05</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -973,7 +976,7 @@
         <v>53.74</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1005,7 +1008,7 @@
         <v>514.6799999999999</v>
       </c>
       <c r="L11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1037,7 +1040,7 @@
         <v>729.49</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1069,7 +1072,7 @@
         <v>860.99</v>
       </c>
       <c r="L13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1101,7 +1104,7 @@
         <v>871.22</v>
       </c>
       <c r="L14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1133,7 +1136,7 @@
         <v>824.5</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1165,7 +1168,7 @@
         <v>797.53</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1197,7 +1200,7 @@
         <v>600.26</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1229,7 +1232,7 @@
         <v>78.56999999999999</v>
       </c>
       <c r="L18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1261,7 +1264,7 @@
         <v>26.75</v>
       </c>
       <c r="L19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1293,7 +1296,7 @@
         <v>9.83</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1357,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1389,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1421,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1517,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1613,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1645,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1677,7 +1680,7 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1709,7 +1712,7 @@
         <v>16.14</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1741,7 +1744,7 @@
         <v>66.45999999999999</v>
       </c>
       <c r="L34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1773,7 +1776,7 @@
         <v>477.34</v>
       </c>
       <c r="L35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1805,7 +1808,7 @@
         <v>686.17</v>
       </c>
       <c r="L36" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1837,7 +1840,7 @@
         <v>836.99</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1869,7 +1872,7 @@
         <v>898.76</v>
       </c>
       <c r="L38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -1901,7 +1904,7 @@
         <v>747.3200000000001</v>
       </c>
       <c r="L39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -1933,7 +1936,7 @@
         <v>763.25</v>
       </c>
       <c r="L40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1965,7 +1968,7 @@
         <v>481.57</v>
       </c>
       <c r="L41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1997,7 +2000,7 @@
         <v>360.41</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2029,7 +2032,7 @@
         <v>108.47</v>
       </c>
       <c r="L43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2061,7 +2064,7 @@
         <v>6.63</v>
       </c>
       <c r="L44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2125,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2189,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2221,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2285,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2317,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2349,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2381,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2413,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2445,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2477,7 +2480,7 @@
         <v>22.28</v>
       </c>
       <c r="L57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2509,7 +2512,7 @@
         <v>47.66</v>
       </c>
       <c r="L58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2541,7 +2544,7 @@
         <v>537.08</v>
       </c>
       <c r="L59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2573,7 +2576,7 @@
         <v>740.83</v>
       </c>
       <c r="L60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2605,7 +2608,7 @@
         <v>875.37</v>
       </c>
       <c r="L61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2637,7 +2640,7 @@
         <v>944.88</v>
       </c>
       <c r="L62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2669,7 +2672,7 @@
         <v>937.0700000000001</v>
       </c>
       <c r="L63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2701,7 +2704,7 @@
         <v>742.5</v>
       </c>
       <c r="L64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2733,7 +2736,7 @@
         <v>623.5</v>
       </c>
       <c r="L65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2765,7 +2768,7 @@
         <v>463.6</v>
       </c>
       <c r="L66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2797,7 +2800,7 @@
         <v>182.72</v>
       </c>
       <c r="L67" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2829,7 +2832,7 @@
         <v>14.4</v>
       </c>
       <c r="L68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -2893,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2925,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -2957,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2989,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3021,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3053,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3085,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3117,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3149,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3181,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3213,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3245,7 +3248,39 @@
         <v>13.77</v>
       </c>
       <c r="L81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>91</v>
+      </c>
+      <c r="C82">
+        <v>13.41</v>
+      </c>
+      <c r="D82">
+        <v>0.42</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>18.91</v>
+      </c>
+      <c r="H82">
+        <v>-45.11</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>47.18</v>
+      </c>
+      <c r="L82" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
